--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1052"/>
+  <dimension ref="A1:H1085"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28677,23 +28677,23 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Cepat Alam Segar Pondok Indah Harga Murah Semi Furnished Bagus, Rumah Pondok Indah</t>
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>7090000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1009" t="n">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="E1009" t="n">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="F1009" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1009" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1009" t="n">
         <v>1</v>
@@ -28705,26 +28705,26 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Dijual Cepat Alam Segar Pondok Indah Harga Murah Semi Furnished Bagus, Rumah Pondok Indah</t>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>11500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1010" t="n">
-        <v>310</v>
+        <v>760</v>
       </c>
       <c r="E1010" t="n">
-        <v>260</v>
+        <v>517</v>
       </c>
       <c r="F1010" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1010" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1011">
@@ -28733,26 +28733,26 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>38000000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1011" t="n">
-        <v>760</v>
+        <v>1500</v>
       </c>
       <c r="E1011" t="n">
-        <v>517</v>
+        <v>634</v>
       </c>
       <c r="F1011" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1011" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1012">
@@ -28761,26 +28761,26 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>85000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="D1012" t="n">
-        <v>1500</v>
+        <v>215</v>
       </c>
       <c r="E1012" t="n">
-        <v>634</v>
+        <v>215</v>
       </c>
       <c r="F1012" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1012" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1012" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013">
@@ -28789,26 +28789,26 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>5200000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D1013" t="n">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="E1013" t="n">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F1013" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1013" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1014">
@@ -28817,26 +28817,26 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>20000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1014" t="n">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="E1014" t="n">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F1014" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1014" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1014" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015">
@@ -28845,17 +28845,17 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>6900000000</v>
+        <v>17500000000</v>
       </c>
       <c r="D1015" t="n">
-        <v>375</v>
+        <v>603</v>
       </c>
       <c r="E1015" t="n">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="F1015" t="n">
         <v>4</v>
@@ -28873,26 +28873,26 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>2400000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1016" t="n">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="E1016" t="n">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="F1016" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1016" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017">
@@ -28901,26 +28901,26 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
+          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>17500000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1017" t="n">
-        <v>603</v>
+        <v>147</v>
       </c>
       <c r="E1017" t="n">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="F1017" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1017" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018">
@@ -28929,26 +28929,26 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>7700000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1018" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E1018" t="n">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="F1018" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1018" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -28957,23 +28957,23 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>6900000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1019" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1019" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F1019" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1019" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1019" t="n">
         <v>2</v>
@@ -28985,26 +28985,26 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>2600000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>88</v>
+        <v>300</v>
       </c>
       <c r="E1020" t="n">
-        <v>55</v>
+        <v>2448</v>
       </c>
       <c r="F1020" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1020" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1021">
@@ -29013,20 +29013,20 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>15500000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="E1021" t="n">
-        <v>317</v>
+        <v>150</v>
       </c>
       <c r="F1021" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1021" t="n">
         <v>3</v>
@@ -29041,23 +29041,23 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>6900000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1022" t="n">
-        <v>375</v>
+        <v>206</v>
       </c>
       <c r="E1022" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1022" t="n">
         <v>4</v>
       </c>
       <c r="G1022" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1022" t="n">
         <v>2</v>
@@ -29069,26 +29069,26 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>6900000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E1023" t="n">
-        <v>76</v>
+        <v>475</v>
       </c>
       <c r="F1023" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1023" t="n">
         <v>4</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1024">
@@ -29097,26 +29097,26 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>2830000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="E1024" t="n">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="F1024" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1024" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025">
@@ -29125,26 +29125,26 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>6900000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="E1025" t="n">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F1025" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1025" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026">
@@ -29153,26 +29153,26 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>5700000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="E1026" t="n">
-        <v>300</v>
+        <v>528</v>
       </c>
       <c r="F1026" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1026" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027">
@@ -29181,26 +29181,26 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>19000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="E1027" t="n">
-        <v>2448</v>
+        <v>132</v>
       </c>
       <c r="F1027" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1027" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1027" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028">
@@ -29209,23 +29209,23 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>2750000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E1028" t="n">
-        <v>150</v>
+        <v>502</v>
       </c>
       <c r="F1028" t="n">
         <v>5</v>
       </c>
       <c r="G1028" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1028" t="n">
         <v>1</v>
@@ -29237,26 +29237,26 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>2750000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1029" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1029" t="n">
         <v>220</v>
       </c>
-      <c r="E1029" t="n">
-        <v>114</v>
-      </c>
       <c r="F1029" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1029" t="n">
         <v>4</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030">
@@ -29265,26 +29265,26 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>1830000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>140</v>
+        <v>466</v>
       </c>
       <c r="E1030" t="n">
-        <v>67</v>
+        <v>496</v>
       </c>
       <c r="F1030" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1030" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -29293,26 +29293,26 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>5800000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="E1031" t="n">
-        <v>200</v>
+        <v>432</v>
       </c>
       <c r="F1031" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1031" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1032">
@@ -29321,26 +29321,26 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>6800000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1032" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
       <c r="E1032" t="n">
-        <v>475</v>
+        <v>125</v>
       </c>
       <c r="F1032" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1032" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -29349,26 +29349,26 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1033" t="n">
         <v>3500000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E1033" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F1033" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1033" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1033" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -29377,26 +29377,26 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>15500000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>340</v>
+        <v>56</v>
       </c>
       <c r="E1034" t="n">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="F1034" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1034" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035">
@@ -29405,26 +29405,26 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>7000000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="E1035" t="n">
-        <v>120</v>
+        <v>634</v>
       </c>
       <c r="F1035" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1035" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1035" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1036">
@@ -29433,26 +29433,26 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>13700000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="E1036" t="n">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="F1036" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1036" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1036" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1037">
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>5750000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>270</v>
+        <v>750</v>
       </c>
       <c r="E1037" t="n">
-        <v>132</v>
+        <v>1026</v>
       </c>
       <c r="F1037" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1037" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1037" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>16500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="E1038" t="n">
-        <v>502</v>
+        <v>127</v>
       </c>
       <c r="F1038" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1038" t="n">
         <v>4</v>
       </c>
       <c r="H1038" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,26 +29517,26 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>5000000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E1039" t="n">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="F1039" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1039" t="n">
         <v>4</v>
       </c>
       <c r="H1039" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -29545,17 +29545,17 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>13500000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="E1040" t="n">
-        <v>496</v>
+        <v>250</v>
       </c>
       <c r="F1040" t="n">
         <v>5</v>
@@ -29564,7 +29564,7 @@
         <v>5</v>
       </c>
       <c r="H1040" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>7000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>432</v>
+        <v>1800</v>
       </c>
       <c r="E1041" t="n">
-        <v>432</v>
+        <v>1225</v>
       </c>
       <c r="F1041" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1041" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1041" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,23 +29601,23 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah Strategis Di Tengah Kota</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>1390000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="E1042" t="n">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="F1042" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1042" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1042" t="n">
         <v>2</v>
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>3500000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>230</v>
+        <v>375</v>
       </c>
       <c r="E1043" t="n">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F1043" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1043" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>1170000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>56</v>
+        <v>500</v>
       </c>
       <c r="E1044" t="n">
-        <v>29</v>
+        <v>420</v>
       </c>
       <c r="F1044" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1044" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>44000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>720</v>
+        <v>616</v>
       </c>
       <c r="E1045" t="n">
-        <v>634</v>
+        <v>383</v>
       </c>
       <c r="F1045" t="n">
         <v>4</v>
       </c>
       <c r="G1045" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1045" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,23 +29713,23 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>22000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="E1046" t="n">
-        <v>518</v>
+        <v>270</v>
       </c>
       <c r="F1046" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1046" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1046" t="n">
         <v>2</v>
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>79900000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="E1047" t="n">
-        <v>1026</v>
+        <v>76</v>
       </c>
       <c r="F1047" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G1047" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1047" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,26 +29769,26 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>13500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>325</v>
+        <v>375</v>
       </c>
       <c r="E1048" t="n">
-        <v>696</v>
+        <v>76</v>
       </c>
       <c r="F1048" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1048" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1048" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,23 +29797,23 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>2000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E1049" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F1049" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1049" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1049" t="n">
         <v>2</v>
@@ -29825,26 +29825,26 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>3850000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1050" t="n">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="F1050" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1050" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -29853,23 +29853,23 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>8000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="E1051" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F1051" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1051" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1051" t="n">
         <v>3</v>
@@ -29881,26 +29881,950 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>45000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>1800</v>
+        <v>75</v>
       </c>
       <c r="E1052" t="n">
-        <v>1225</v>
+        <v>81</v>
       </c>
       <c r="F1052" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1052" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1052" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>7700000000</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>400</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>2500000000</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>130</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>3200000000</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>198</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>13000000000</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>318</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>1550000000</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>27000000000</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>2028</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>7700000000</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>400</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>24000000000</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>230</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>135</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>353</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah di Pondok Indah .</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>33000000000</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>750</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>607</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>18500000000</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>245</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>260</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>24500000000</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>787</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>Rumah Tinggal Jalan Kedondong</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>1470000000</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>3500000000</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>144</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>7700000000</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>400</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>2900000000</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>155</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>1200000000</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>81</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>54</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>170000000000</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>750</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>406</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>190</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>135</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>11500000000</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>580</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>2750000000</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>220</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>114</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>1830000000</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>67</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1085"/>
+  <dimension ref="A1:H1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>7090000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="E1043" t="n">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="F1043" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1043" t="n">
         <v>3</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,23 +29657,23 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>9000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E1044" t="n">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="F1044" t="n">
         <v>4</v>
       </c>
       <c r="G1044" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1044" t="n">
         <v>2</v>
@@ -29685,23 +29685,23 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>16000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>616</v>
+        <v>375</v>
       </c>
       <c r="E1045" t="n">
-        <v>383</v>
+        <v>76</v>
       </c>
       <c r="F1045" t="n">
         <v>4</v>
       </c>
       <c r="G1045" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1045" t="n">
         <v>2</v>
@@ -29713,26 +29713,26 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>7700000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="E1046" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F1046" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1046" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>6900000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="E1047" t="n">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="F1047" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1047" t="n">
         <v>4</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,26 +29769,26 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>6900000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>375</v>
+        <v>75</v>
       </c>
       <c r="E1048" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1048" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1048" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>2400000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="E1049" t="n">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="F1049" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1049" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,23 +29825,23 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>5700000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E1050" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="F1050" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G1050" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1050" t="n">
         <v>1</v>
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>15500000000</v>
+        <v>3200000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="E1051" t="n">
-        <v>350</v>
+        <v>198</v>
       </c>
       <c r="F1051" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1051" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1051" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,26 +29881,26 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>1500000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E1052" t="n">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="F1052" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1052" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1053">
@@ -29909,26 +29909,26 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>2600000000</v>
+        <v>1550000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E1053" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F1053" t="n">
         <v>3</v>
       </c>
       <c r="G1053" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -29937,26 +29937,26 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
+          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>7700000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E1054" t="n">
-        <v>400</v>
+        <v>2028</v>
       </c>
       <c r="F1054" t="n">
         <v>5</v>
       </c>
       <c r="G1054" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1054" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
+          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>2500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E1055" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="F1055" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1055" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,26 +29993,26 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
+          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>3200000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="E1056" t="n">
-        <v>198</v>
+        <v>1000</v>
       </c>
       <c r="F1056" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1056" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1057">
@@ -30021,23 +30021,23 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>2830000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="E1057" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="F1057" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1057" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1057" t="n">
         <v>2</v>
@@ -30049,26 +30049,26 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>13000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="E1058" t="n">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="F1058" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1058" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -30077,23 +30077,23 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
+          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>1550000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E1059" t="n">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="F1059" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1059" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1059" t="n">
         <v>1</v>
@@ -30105,23 +30105,23 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
+          <t>Dijual Rumah Mewah di Pondok Indah .</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>27000000000</v>
+        <v>33000000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="E1060" t="n">
-        <v>2028</v>
+        <v>607</v>
       </c>
       <c r="F1060" t="n">
         <v>5</v>
       </c>
       <c r="G1060" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1060" t="n">
         <v>2</v>
@@ -30133,26 +30133,26 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>7700000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="E1061" t="n">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="F1061" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1061" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
+          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>24000000000</v>
+        <v>18500000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>1200</v>
+        <v>245</v>
       </c>
       <c r="E1062" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="F1062" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1062" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1062" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>3000000000</v>
+        <v>24500000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="E1063" t="n">
-        <v>230</v>
+        <v>787</v>
       </c>
       <c r="F1063" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1063" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>2600000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="E1064" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F1064" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1064" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>21000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="E1065" t="n">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="F1065" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1065" t="n">
         <v>4</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,26 +30273,26 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah di Pondok Indah .</t>
+          <t>Rumah Tinggal Jalan Kedondong</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>33000000000</v>
+        <v>1470000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E1066" t="n">
-        <v>607</v>
+        <v>200</v>
       </c>
       <c r="F1066" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1066" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
+          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>6900000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="E1067" t="n">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F1067" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1067" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>18500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="E1068" t="n">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="F1068" t="n">
         <v>4</v>
       </c>
       <c r="G1068" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>24500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E1069" t="n">
-        <v>787</v>
+        <v>400</v>
       </c>
       <c r="F1069" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1069" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1069" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,26 +30385,26 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
+          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>6900000000</v>
+        <v>2900000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="E1070" t="n">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F1070" t="n">
         <v>4</v>
       </c>
       <c r="G1070" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
+          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>6900000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="E1071" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F1071" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1071" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,26 +30441,26 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Rumah Tinggal Jalan Kedondong</t>
+          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>1470000000</v>
+        <v>170000000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E1072" t="n">
-        <v>200</v>
+        <v>2835</v>
       </c>
       <c r="F1072" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1072" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>3500000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E1073" t="n">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="F1073" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1073" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>6900000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="E1074" t="n">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F1074" t="n">
         <v>4</v>
       </c>
       <c r="G1074" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>7700000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1075" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="F1075" t="n">
         <v>5</v>
       </c>
       <c r="G1075" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1075" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>13500000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="E1076" t="n">
-        <v>696</v>
+        <v>114</v>
       </c>
       <c r="F1076" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1076" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1076" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>2900000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E1077" t="n">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="F1077" t="n">
         <v>4</v>
       </c>
       <c r="G1077" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1077" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
+          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>1200000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>81</v>
+        <v>375</v>
       </c>
       <c r="E1078" t="n">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="F1078" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1078" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1078" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>170000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>1400</v>
+        <v>375</v>
       </c>
       <c r="E1079" t="n">
-        <v>2835</v>
+        <v>76</v>
       </c>
       <c r="F1079" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1079" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1079" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,26 +30665,26 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>35000000000</v>
+        <v>1450000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>750</v>
+        <v>115</v>
       </c>
       <c r="E1080" t="n">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="F1080" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1080" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1080" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -30693,20 +30693,20 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
+          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>3000000000</v>
+        <v>880000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="E1081" t="n">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="F1081" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1081" t="n">
         <v>3</v>
@@ -30721,26 +30721,26 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>11500000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="E1082" t="n">
-        <v>580</v>
+        <v>696</v>
       </c>
       <c r="F1082" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1082" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1082" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,26 +30749,26 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>2750000000</v>
+        <v>6600000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="E1083" t="n">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="F1083" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1083" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084">
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>1830000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>140</v>
+        <v>720</v>
       </c>
       <c r="E1084" t="n">
-        <v>67</v>
+        <v>634</v>
       </c>
       <c r="F1084" t="n">
         <v>4</v>
       </c>
       <c r="G1084" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,25 +30805,501 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
+          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>6900000000</v>
+        <v>2150000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="E1085" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F1085" t="n">
         <v>4</v>
       </c>
       <c r="G1085" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1085" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYATT</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>7500000000</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>400</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>1200000000</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>75</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>64</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>New House Full Furnished Kemang Selatan</t>
+        </is>
+      </c>
+      <c r="C1089" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>760</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>518</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>9</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Padmavilla Pejaten</t>
+        </is>
+      </c>
+      <c r="C1090" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>88</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
+        </is>
+      </c>
+      <c r="C1091" t="n">
+        <v>4800000000</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>390</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
+        </is>
+      </c>
+      <c r="C1092" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1092" t="n">
+        <v>670</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>287</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1092" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+        </is>
+      </c>
+      <c r="C1093" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1093" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>982</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1093" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1094" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1094" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1094" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1094" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1095" t="n">
+        <v>8500000000</v>
+      </c>
+      <c r="D1095" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1095" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+        </is>
+      </c>
+      <c r="C1096" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1096" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>308</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1096" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1097" t="n">
+        <v>9500000000</v>
+      </c>
+      <c r="D1097" t="n">
+        <v>257</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1097" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+        </is>
+      </c>
+      <c r="C1098" t="n">
+        <v>5750000000</v>
+      </c>
+      <c r="D1098" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>279</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1098" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
+        </is>
+      </c>
+      <c r="C1099" t="n">
+        <v>4500000000</v>
+      </c>
+      <c r="D1099" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>153</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1099" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+        </is>
+      </c>
+      <c r="C1100" t="n">
+        <v>16000000000</v>
+      </c>
+      <c r="D1100" t="n">
+        <v>616</v>
+      </c>
+      <c r="E1100" t="n">
+        <v>383</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
+        </is>
+      </c>
+      <c r="C1101" t="n">
+        <v>54000000000</v>
+      </c>
+      <c r="D1101" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
+        </is>
+      </c>
+      <c r="C1102" t="n">
+        <v>7700000000</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>216</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>270</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1102" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1102"/>
+  <dimension ref="A1:H1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28705,26 +28705,26 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>38000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="D1010" t="n">
-        <v>760</v>
+        <v>215</v>
       </c>
       <c r="E1010" t="n">
-        <v>517</v>
+        <v>215</v>
       </c>
       <c r="F1010" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G1010" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -28733,23 +28733,23 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>85000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D1011" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="E1011" t="n">
-        <v>634</v>
+        <v>200</v>
       </c>
       <c r="F1011" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1011" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1011" t="n">
         <v>4</v>
@@ -28761,26 +28761,26 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Rumah Cozy Dn Nyaman di Lingkungan Pusat Bisnis di Fatmawati,Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>5200000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1012" t="n">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="E1012" t="n">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="F1012" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1012" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1012" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013">
@@ -28789,26 +28789,26 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>20000000000</v>
+        <v>17500000000</v>
       </c>
       <c r="D1013" t="n">
-        <v>90</v>
+        <v>603</v>
       </c>
       <c r="E1013" t="n">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="F1013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1013" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014">
@@ -28817,7 +28817,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru Paling Strategis di Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1014" t="n">
@@ -28845,26 +28845,26 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah 5 Lantai Ada Lift Interior Premium Designtropical Modern Di Pondok Indah Niaga Design By Ateiler Riri</t>
+          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>17500000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1015" t="n">
-        <v>603</v>
+        <v>147</v>
       </c>
       <c r="E1015" t="n">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="F1015" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1015" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016">
@@ -28873,7 +28873,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1016" t="n">
@@ -28901,26 +28901,26 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>15500000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1017" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1017" t="n">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F1017" t="n">
         <v>3</v>
       </c>
       <c r="G1017" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018">
@@ -28929,26 +28929,26 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>6900000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1018" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1018" t="n">
-        <v>76</v>
+        <v>2448</v>
       </c>
       <c r="F1018" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1018" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1019">
@@ -28957,26 +28957,26 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>5700000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1019" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1019" t="n">
         <v>150</v>
       </c>
-      <c r="E1019" t="n">
-        <v>300</v>
-      </c>
       <c r="F1019" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1019" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -28985,26 +28985,26 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>19000000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="E1020" t="n">
-        <v>2448</v>
+        <v>200</v>
       </c>
       <c r="F1020" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1020" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1020" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021">
@@ -29013,26 +29013,26 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>2750000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="E1021" t="n">
-        <v>150</v>
+        <v>475</v>
       </c>
       <c r="F1021" t="n">
         <v>5</v>
       </c>
       <c r="G1021" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1021" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1022">
@@ -29041,26 +29041,26 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>5800000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1022" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E1022" t="n">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="F1022" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1022" t="n">
         <v>3</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023">
@@ -29069,26 +29069,26 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>6800000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="E1023" t="n">
-        <v>475</v>
+        <v>120</v>
       </c>
       <c r="F1023" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1023" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1023" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024">
@@ -29097,23 +29097,23 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>3500000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="E1024" t="n">
-        <v>127</v>
+        <v>528</v>
       </c>
       <c r="F1024" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1024" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1024" t="n">
         <v>1</v>
@@ -29125,23 +29125,23 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>7000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E1025" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F1025" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1025" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1025" t="n">
         <v>1</v>
@@ -29153,23 +29153,23 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>13700000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="E1026" t="n">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F1026" t="n">
         <v>5</v>
       </c>
       <c r="G1026" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1026" t="n">
         <v>1</v>
@@ -29181,17 +29181,17 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>5750000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E1027" t="n">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F1027" t="n">
         <v>4</v>
@@ -29209,23 +29209,23 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>16500000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="E1028" t="n">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F1028" t="n">
         <v>5</v>
       </c>
       <c r="G1028" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1028" t="n">
         <v>1</v>
@@ -29237,26 +29237,26 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>5000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1029" t="n">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="E1029" t="n">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="F1029" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1029" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1029" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1030">
@@ -29265,26 +29265,26 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>13500000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>466</v>
+        <v>90</v>
       </c>
       <c r="E1030" t="n">
-        <v>496</v>
+        <v>125</v>
       </c>
       <c r="F1030" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1030" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1030" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031">
@@ -29293,26 +29293,26 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>7000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="E1031" t="n">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="F1031" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1031" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1031" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032">
@@ -29321,26 +29321,26 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>1390000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1032" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E1032" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="F1032" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1032" t="n">
         <v>2</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033">
@@ -29349,26 +29349,26 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>3500000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="E1033" t="n">
-        <v>102</v>
+        <v>634</v>
       </c>
       <c r="F1033" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1033" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1034">
@@ -29377,26 +29377,26 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>1170000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="E1034" t="n">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="F1034" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1034" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1034" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035">
@@ -29405,26 +29405,26 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>44000000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="E1035" t="n">
-        <v>634</v>
+        <v>1026</v>
       </c>
       <c r="F1035" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1035" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1035" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1036">
@@ -29433,17 +29433,17 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>22000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="E1036" t="n">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="F1036" t="n">
         <v>4</v>
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>79900000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E1037" t="n">
-        <v>1026</v>
+        <v>102</v>
       </c>
       <c r="F1037" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1037" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1037" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>2000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="E1038" t="n">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="F1038" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1038" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,17 +29517,17 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>3850000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E1039" t="n">
-        <v>102</v>
+        <v>1225</v>
       </c>
       <c r="F1039" t="n">
         <v>5</v>
@@ -29536,7 +29536,7 @@
         <v>4</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1040">
@@ -29545,26 +29545,26 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Strategis Di Tengah Kota</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>8000000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="E1040" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F1040" t="n">
         <v>5</v>
       </c>
       <c r="G1040" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1040" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>45000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E1041" t="n">
-        <v>1225</v>
+        <v>420</v>
       </c>
       <c r="F1041" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1041" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1041" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,20 +29601,20 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah Strategis Di Tengah Kota</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>7800000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="E1042" t="n">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="F1042" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1042" t="n">
         <v>4</v>
@@ -29629,23 +29629,23 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>9000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E1043" t="n">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="F1043" t="n">
         <v>4</v>
       </c>
       <c r="G1043" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1043" t="n">
         <v>2</v>
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>6900000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="E1044" t="n">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="F1044" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1044" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>6900000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="E1045" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="F1045" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1045" t="n">
         <v>4</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,20 +29713,20 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>5700000000</v>
+        <v>3200000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E1046" t="n">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="F1046" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1046" t="n">
         <v>3</v>
@@ -29741,23 +29741,23 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>15500000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="E1047" t="n">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="F1047" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1047" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1047" t="n">
         <v>3</v>
@@ -29769,14 +29769,14 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>1500000000</v>
+        <v>1550000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E1048" t="n">
         <v>81</v>
@@ -29785,7 +29785,7 @@
         <v>3</v>
       </c>
       <c r="G1048" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1048" t="n">
         <v>1</v>
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
+          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>7700000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E1049" t="n">
-        <v>400</v>
+        <v>2028</v>
       </c>
       <c r="F1049" t="n">
         <v>5</v>
       </c>
       <c r="G1049" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1049" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,26 +29825,26 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
+          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>2500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="E1050" t="n">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="F1050" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1050" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1051">
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
+          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>3200000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
       <c r="E1051" t="n">
-        <v>198</v>
+        <v>1000</v>
       </c>
       <c r="F1051" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1051" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,26 +29881,26 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>13000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="E1052" t="n">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="F1052" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1052" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1052" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -29909,23 +29909,23 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
+          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>1550000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E1053" t="n">
-        <v>81</v>
+        <v>353</v>
       </c>
       <c r="F1053" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1053" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1053" t="n">
         <v>1</v>
@@ -29937,23 +29937,23 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
+          <t>Dijual Rumah Mewah di Pondok Indah .</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>27000000000</v>
+        <v>33000000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="E1054" t="n">
-        <v>2028</v>
+        <v>607</v>
       </c>
       <c r="F1054" t="n">
         <v>5</v>
       </c>
       <c r="G1054" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1054" t="n">
         <v>2</v>
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>7700000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="E1055" t="n">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="F1055" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1055" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1055" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,26 +29993,26 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
+          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>24000000000</v>
+        <v>18500000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>1200</v>
+        <v>245</v>
       </c>
       <c r="E1056" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="F1056" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1056" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1056" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>3000000000</v>
+        <v>24500000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="E1057" t="n">
-        <v>230</v>
+        <v>787</v>
       </c>
       <c r="F1057" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1057" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,26 +30049,26 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>2600000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="E1058" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F1058" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1058" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059">
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>21000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="E1059" t="n">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="F1059" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1059" t="n">
         <v>4</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah di Pondok Indah .</t>
+          <t>Rumah Tinggal Jalan Kedondong</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>33000000000</v>
+        <v>1470000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E1060" t="n">
-        <v>607</v>
+        <v>200</v>
       </c>
       <c r="F1060" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1060" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,26 +30133,26 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
+          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>6900000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="E1061" t="n">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F1061" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1061" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>18500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="E1062" t="n">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="F1062" t="n">
         <v>4</v>
       </c>
       <c r="G1062" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>24500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E1063" t="n">
-        <v>787</v>
+        <v>400</v>
       </c>
       <c r="F1063" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1063" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1063" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
+          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>6900000000</v>
+        <v>2900000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="E1064" t="n">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F1064" t="n">
         <v>4</v>
       </c>
       <c r="G1064" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
+          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>6900000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="E1065" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F1065" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1065" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,26 +30273,26 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Rumah Tinggal Jalan Kedondong</t>
+          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>1470000000</v>
+        <v>170000000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E1066" t="n">
-        <v>200</v>
+        <v>2835</v>
       </c>
       <c r="F1066" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1066" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>3500000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="E1067" t="n">
-        <v>144</v>
+        <v>406</v>
       </c>
       <c r="F1067" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1067" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>6900000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="E1068" t="n">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="F1068" t="n">
         <v>4</v>
       </c>
       <c r="G1068" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>7700000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E1069" t="n">
-        <v>400</v>
+        <v>580</v>
       </c>
       <c r="F1069" t="n">
         <v>5</v>
       </c>
       <c r="G1069" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1069" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,26 +30385,26 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>2900000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="E1070" t="n">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="F1070" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1070" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>1200000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="E1071" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F1071" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1071" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,26 +30441,26 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
+          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>170000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>1400</v>
+        <v>375</v>
       </c>
       <c r="E1072" t="n">
-        <v>2835</v>
+        <v>76</v>
       </c>
       <c r="F1072" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1072" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1072" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>35000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="E1073" t="n">
-        <v>406</v>
+        <v>76</v>
       </c>
       <c r="F1073" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1073" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
+          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>3000000000</v>
+        <v>1450000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="E1074" t="n">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="F1074" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1074" t="n">
         <v>3</v>
       </c>
       <c r="H1074" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,23 +30525,23 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
+          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>11500000000</v>
+        <v>880000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="E1075" t="n">
-        <v>580</v>
+        <v>42</v>
       </c>
       <c r="F1075" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1075" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1075" t="n">
         <v>1</v>
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>2750000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="E1076" t="n">
-        <v>114</v>
+        <v>696</v>
       </c>
       <c r="F1076" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1076" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>1830000000</v>
+        <v>2150000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="E1077" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F1077" t="n">
         <v>4</v>
       </c>
       <c r="G1077" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,23 +30609,23 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>6900000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>375</v>
+        <v>130</v>
       </c>
       <c r="E1078" t="n">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F1078" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1078" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1078" t="n">
         <v>2</v>
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>7090000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="E1079" t="n">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="F1079" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1079" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1079" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,23 +30665,23 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
+          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>1450000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="E1080" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F1080" t="n">
         <v>3</v>
       </c>
       <c r="G1080" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1080" t="n">
         <v>2</v>
@@ -30693,26 +30693,26 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
+          <t>New House Full Furnished Kemang Selatan</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>880000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>80</v>
+        <v>760</v>
       </c>
       <c r="E1081" t="n">
-        <v>42</v>
+        <v>518</v>
       </c>
       <c r="F1081" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G1081" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H1081" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1082">
@@ -30721,17 +30721,17 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>13500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="E1082" t="n">
-        <v>696</v>
+        <v>55</v>
       </c>
       <c r="F1082" t="n">
         <v>3</v>
@@ -30740,7 +30740,7 @@
         <v>3</v>
       </c>
       <c r="H1082" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,26 +30749,26 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
+          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>6600000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E1083" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F1083" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1083" t="n">
         <v>3</v>
       </c>
       <c r="H1083" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084">
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>41900000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="E1084" t="n">
-        <v>634</v>
+        <v>287</v>
       </c>
       <c r="F1084" t="n">
         <v>4</v>
       </c>
       <c r="G1084" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1084" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>2150000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>98</v>
+        <v>650</v>
       </c>
       <c r="E1085" t="n">
-        <v>90</v>
+        <v>982</v>
       </c>
       <c r="F1085" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1085" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1085" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,23 +30833,23 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>2400000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E1086" t="n">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F1086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1086" t="n">
         <v>2</v>
@@ -30861,23 +30861,23 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>7500000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E1087" t="n">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="F1087" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1087" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1087" t="n">
         <v>3</v>
@@ -30889,23 +30889,23 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>1200000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>75</v>
+        <v>1005</v>
       </c>
       <c r="E1088" t="n">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="F1088" t="n">
         <v>3</v>
       </c>
       <c r="G1088" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1088" t="n">
         <v>2</v>
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>New House Full Furnished Kemang Selatan</t>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>38000000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>760</v>
+        <v>257</v>
       </c>
       <c r="E1089" t="n">
-        <v>518</v>
+        <v>306</v>
       </c>
       <c r="F1089" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1089" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1089" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,23 +30945,23 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>2600000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="E1090" t="n">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="F1090" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1090" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1090" t="n">
         <v>2</v>
@@ -30973,20 +30973,20 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>4800000000</v>
+        <v>16000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>250</v>
+        <v>616</v>
       </c>
       <c r="E1091" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F1091" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1091" t="n">
         <v>3</v>
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
+          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>15000000000</v>
+        <v>54000000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>670</v>
+        <v>1000</v>
       </c>
       <c r="E1092" t="n">
-        <v>287</v>
+        <v>1200</v>
       </c>
       <c r="F1092" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1092" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,17 +31029,17 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>25000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>650</v>
+        <v>216</v>
       </c>
       <c r="E1093" t="n">
-        <v>982</v>
+        <v>270</v>
       </c>
       <c r="F1093" t="n">
         <v>5</v>
@@ -31048,7 +31048,7 @@
         <v>5</v>
       </c>
       <c r="H1093" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>2830000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>112</v>
+        <v>375</v>
       </c>
       <c r="E1094" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F1094" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1094" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,23 +31085,23 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>8500000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E1095" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="F1095" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1095" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1095" t="n">
         <v>3</v>
@@ -31113,26 +31113,26 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>15000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>1005</v>
+        <v>384</v>
       </c>
       <c r="E1096" t="n">
-        <v>308</v>
+        <v>1111</v>
       </c>
       <c r="F1096" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1096" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097">
@@ -31141,26 +31141,26 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>9500000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>257</v>
+        <v>720</v>
       </c>
       <c r="E1097" t="n">
-        <v>306</v>
+        <v>634</v>
       </c>
       <c r="F1097" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1097" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1098">
@@ -31169,26 +31169,26 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>5750000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>180</v>
+        <v>1500</v>
       </c>
       <c r="E1098" t="n">
-        <v>279</v>
+        <v>634</v>
       </c>
       <c r="F1098" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1098" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,20 +31197,20 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>4500000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="E1099" t="n">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F1099" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1099" t="n">
         <v>4</v>
@@ -31225,23 +31225,23 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>16000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>616</v>
+        <v>185</v>
       </c>
       <c r="E1100" t="n">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="F1100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1100" t="n">
         <v>2</v>
@@ -31253,26 +31253,26 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>54000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>1000</v>
+        <v>88</v>
       </c>
       <c r="E1101" t="n">
-        <v>1200</v>
+        <v>55</v>
       </c>
       <c r="F1101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1101" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1101" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102">
@@ -31281,26 +31281,1006 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
+          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>7700000000</v>
+        <v>6600000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>216</v>
+        <v>350</v>
       </c>
       <c r="E1102" t="n">
+        <v>378</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+        </is>
+      </c>
+      <c r="C1103" t="n">
+        <v>3000000000</v>
+      </c>
+      <c r="D1103" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>230</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
+        </is>
+      </c>
+      <c r="C1104" t="n">
+        <v>120000000000</v>
+      </c>
+      <c r="D1104" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1105" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1105" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
+        </is>
+      </c>
+      <c r="C1106" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="D1106" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1106" t="n">
+        <v>650</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+        </is>
+      </c>
+      <c r="C1107" t="n">
+        <v>5750000000</v>
+      </c>
+      <c r="D1107" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1107" t="n">
+        <v>279</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
+        </is>
+      </c>
+      <c r="C1108" t="n">
+        <v>1900000000</v>
+      </c>
+      <c r="D1108" t="n">
+        <v>94</v>
+      </c>
+      <c r="E1108" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYATT</t>
+        </is>
+      </c>
+      <c r="C1109" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1109" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1109" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1110" t="n">
+        <v>7890000000</v>
+      </c>
+      <c r="D1110" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1110" t="n">
+        <v>404</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1111" t="n">
+        <v>7800000000</v>
+      </c>
+      <c r="D1111" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>404</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1112" t="n">
+        <v>31900000000</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1113" t="n">
+        <v>44000000000</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>1050</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>627</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1114" t="n">
+        <v>13900000000</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>696</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1115" t="n">
+        <v>39900000000</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>796</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>864</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1116" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>854</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+        </is>
+      </c>
+      <c r="C1117" t="n">
+        <v>53500000000</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>452</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1118" t="n">
+        <v>34900000000</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>538</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1119" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>1100</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>540</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1120" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>500</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+        </is>
+      </c>
+      <c r="C1121" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>65</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>106</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+        </is>
+      </c>
+      <c r="C1122" t="n">
+        <v>3600000000</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>144</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1123" t="n">
+        <v>3700000000</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>143</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+        </is>
+      </c>
+      <c r="C1124" t="n">
+        <v>7900000000</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>682</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+        </is>
+      </c>
+      <c r="C1125" t="n">
+        <v>48000000000</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>338</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+        </is>
+      </c>
+      <c r="C1126" t="n">
+        <v>62000000000</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>670</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
+        </is>
+      </c>
+      <c r="C1127" t="n">
+        <v>46000000000</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>871</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>317</v>
+      </c>
+      <c r="F1127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
+        </is>
+      </c>
+      <c r="C1128" t="n">
+        <v>1500000000</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>75</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>81</v>
+      </c>
+      <c r="F1128" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1129" t="n">
+        <v>5700000000</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+        </is>
+      </c>
+      <c r="C1130" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>825</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>768</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+        </is>
+      </c>
+      <c r="C1131" t="n">
+        <v>14000000000</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>380</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
+        </is>
+      </c>
+      <c r="C1132" t="n">
+        <v>6500000000</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>238</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
+        </is>
+      </c>
+      <c r="C1133" t="n">
+        <v>15500000000</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
+        </is>
+      </c>
+      <c r="C1134" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>725</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>448</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>11</v>
+      </c>
+      <c r="G1134" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
+        </is>
+      </c>
+      <c r="C1135" t="n">
+        <v>20500000000</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>982</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1135" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+        </is>
+      </c>
+      <c r="C1136" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>90</v>
+      </c>
+      <c r="E1136" t="n">
         <v>270</v>
       </c>
-      <c r="F1102" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1102" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1102" t="n">
-        <v>2</v>
+      <c r="F1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+        </is>
+      </c>
+      <c r="C1137" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>760</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>517</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1137" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1137"/>
+  <dimension ref="A1:H1149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28817,26 +28817,26 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>6900000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1014" t="n">
-        <v>375</v>
+        <v>147</v>
       </c>
       <c r="E1014" t="n">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="F1014" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1014" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015">
@@ -28845,26 +28845,26 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Rumah Senopati Kebayoran Baru Rumah di Senopati SHM</t>
+          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>15500000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1015" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1015" t="n">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F1015" t="n">
         <v>3</v>
       </c>
       <c r="G1015" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1015" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016">
@@ -28873,26 +28873,26 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>6900000000</v>
+        <v>19000000000</v>
       </c>
       <c r="D1016" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1016" t="n">
-        <v>76</v>
+        <v>2448</v>
       </c>
       <c r="F1016" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1016" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1017">
@@ -28901,26 +28901,26 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Bona Indah Lokasi Strategis Dekat Mrt, Sekolah Sis, Cikal , Al Izhar Rs Mayapadalokasi Stategis Shm</t>
+          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>5700000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1017" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1017" t="n">
         <v>150</v>
       </c>
-      <c r="E1017" t="n">
-        <v>300</v>
-      </c>
       <c r="F1017" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1017" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018">
@@ -28929,26 +28929,26 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Rumah Hitung Tanah di Jagakarsa, Ada Halaman Luas, Mall</t>
+          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>19000000000</v>
+        <v>5800000000</v>
       </c>
       <c r="D1018" t="n">
-        <v>300</v>
+        <v>206</v>
       </c>
       <c r="E1018" t="n">
-        <v>2448</v>
+        <v>200</v>
       </c>
       <c r="F1018" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1018" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1018" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019">
@@ -28957,26 +28957,26 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Rumah di Belakang Aeon Tanjung Barat, Semi Furnished</t>
+          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>2750000000</v>
+        <v>6800000000</v>
       </c>
       <c r="D1019" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="E1019" t="n">
-        <v>150</v>
+        <v>475</v>
       </c>
       <c r="F1019" t="n">
         <v>5</v>
       </c>
       <c r="G1019" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1019" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1020">
@@ -28985,26 +28985,26 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Rumah di Cilandak, 6 KT, Taman, Dekat MRT &amp; Poins</t>
+          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>5800000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1020" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E1020" t="n">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="F1020" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1020" t="n">
         <v>3</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021">
@@ -29013,26 +29013,26 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Rumah asri di Bumi Bintaro Permai 5 KT SHM</t>
+          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>6800000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1021" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="E1021" t="n">
-        <v>475</v>
+        <v>120</v>
       </c>
       <c r="F1021" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1021" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1021" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
@@ -29041,23 +29041,23 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Rumah di Bukit Duri Dekat LRT, Mall Kokas &amp; Eco Park</t>
+          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>3500000000</v>
+        <v>13700000000</v>
       </c>
       <c r="D1022" t="n">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="E1022" t="n">
-        <v>127</v>
+        <v>528</v>
       </c>
       <c r="F1022" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1022" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1022" t="n">
         <v>1</v>
@@ -29069,23 +29069,23 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Rumah Semi Furnished di Pondok Indah, Dekat PIM &amp; MRT</t>
+          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>7000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1023" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E1023" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F1023" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1023" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1023" t="n">
         <v>1</v>
@@ -29097,23 +29097,23 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>[ Harga Mendekati Njop ] Tebet Barat Commercial Use</t>
+          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>13700000000</v>
+        <v>16500000000</v>
       </c>
       <c r="D1024" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="E1024" t="n">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F1024" t="n">
         <v>5</v>
       </c>
       <c r="G1024" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1024" t="n">
         <v>1</v>
@@ -29125,17 +29125,17 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Akses Lebar ] Bangunan 2025</t>
+          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
         </is>
       </c>
       <c r="C1025" t="n">
-        <v>5750000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D1025" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="E1025" t="n">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="F1025" t="n">
         <v>4</v>
@@ -29153,23 +29153,23 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>[ Rumah Kantor Tebet Barat ] Cocok Untuk Bisnis Maupun Rumah</t>
+          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
         </is>
       </c>
       <c r="C1026" t="n">
-        <v>16500000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1026" t="n">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="E1026" t="n">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F1026" t="n">
         <v>5</v>
       </c>
       <c r="G1026" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1026" t="n">
         <v>1</v>
@@ -29181,26 +29181,26 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>[ Akses 2 Mobil Tebet Barat ] Best Price Dekat Taman</t>
+          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
         </is>
       </c>
       <c r="C1027" t="n">
-        <v>5000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1027" t="n">
-        <v>350</v>
+        <v>432</v>
       </c>
       <c r="E1027" t="n">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="F1027" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1027" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1028">
@@ -29209,26 +29209,26 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>[ Tebet Barat Commercial Use ] Akses Jalan Utama. Banyak Kafe &amp; Resto Di Area Ini</t>
+          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
         </is>
       </c>
       <c r="C1028" t="n">
-        <v>13500000000</v>
+        <v>1390000000</v>
       </c>
       <c r="D1028" t="n">
-        <v>466</v>
+        <v>90</v>
       </c>
       <c r="E1028" t="n">
-        <v>496</v>
+        <v>125</v>
       </c>
       <c r="F1028" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1028" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029">
@@ -29237,26 +29237,26 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>( Best Price On The Market ) Cocok Bangun Kost Premium Tebet</t>
+          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
         </is>
       </c>
       <c r="C1029" t="n">
-        <v>7000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1029" t="n">
-        <v>432</v>
+        <v>230</v>
       </c>
       <c r="E1029" t="n">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="F1029" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1029" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1029" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030">
@@ -29265,26 +29265,26 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Rumah Tanah Luas Siap Huni Dalam Komplek Asri Di Selatan Jakarta</t>
+          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
         </is>
       </c>
       <c r="C1030" t="n">
-        <v>1390000000</v>
+        <v>1170000000</v>
       </c>
       <c r="D1030" t="n">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E1030" t="n">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="F1030" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1030" t="n">
         <v>2</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031">
@@ -29293,26 +29293,26 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Rumah 3 Lantai Siap Huni Semi Furnished, Jagakarsa</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
         </is>
       </c>
       <c r="C1031" t="n">
-        <v>3500000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1031" t="n">
-        <v>230</v>
+        <v>720</v>
       </c>
       <c r="E1031" t="n">
-        <v>102</v>
+        <v>634</v>
       </c>
       <c r="F1031" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1031" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1032">
@@ -29321,26 +29321,26 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Rumah Elegan, Harga Menggoda, Kesempatan Tak Terulang !</t>
+          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
         </is>
       </c>
       <c r="C1032" t="n">
-        <v>1170000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1032" t="n">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="E1032" t="n">
-        <v>29</v>
+        <v>518</v>
       </c>
       <c r="F1032" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1032" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033">
@@ -29349,26 +29349,26 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634m2 Di Pondok Indah</t>
+          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
         </is>
       </c>
       <c r="C1033" t="n">
-        <v>44000000000</v>
+        <v>79900000000</v>
       </c>
       <c r="D1033" t="n">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="E1033" t="n">
-        <v>634</v>
+        <v>1026</v>
       </c>
       <c r="F1033" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1033" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1033" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1034">
@@ -29377,17 +29377,17 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Rumah di Darmawangsa, Kebayoran Baru, Akses jalan 3 mobil, 1 km ke MRT Blok A</t>
+          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
         </is>
       </c>
       <c r="C1034" t="n">
-        <v>22000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D1034" t="n">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="E1034" t="n">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="F1034" t="n">
         <v>4</v>
@@ -29405,26 +29405,26 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah Furnished di Area Premium di Kebayoran Baru, Turun Harga</t>
+          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
         </is>
       </c>
       <c r="C1035" t="n">
-        <v>79900000000</v>
+        <v>3850000000</v>
       </c>
       <c r="D1035" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="E1035" t="n">
-        <v>1026</v>
+        <v>102</v>
       </c>
       <c r="F1035" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1035" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1035" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036">
@@ -29433,26 +29433,26 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Rumah Baru Siaphuni Deket Mrt Lebak Bulus Dalam Cluster Dekat Tol</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>2000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="E1036" t="n">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="F1036" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1036" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037">
@@ -29461,17 +29461,17 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Rumah 4 Lantai Private Poll Di Jagakarsa Jakarta Selatan Cluster</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>3850000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="E1037" t="n">
-        <v>102</v>
+        <v>1225</v>
       </c>
       <c r="F1037" t="n">
         <v>5</v>
@@ -29480,7 +29480,7 @@
         <v>4</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,26 +29489,26 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Strategis Di Tengah Kota</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>8000000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="E1038" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F1038" t="n">
         <v>5</v>
       </c>
       <c r="G1038" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1038" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039">
@@ -29517,26 +29517,26 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>45000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E1039" t="n">
-        <v>1225</v>
+        <v>420</v>
       </c>
       <c r="F1039" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1039" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1039" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040">
@@ -29545,20 +29545,20 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rumah Strategis Di Tengah Kota</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>7800000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="E1040" t="n">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="F1040" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1040" t="n">
         <v>4</v>
@@ -29573,23 +29573,23 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>9000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E1041" t="n">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="F1041" t="n">
         <v>4</v>
       </c>
       <c r="G1041" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1041" t="n">
         <v>2</v>
@@ -29601,26 +29601,26 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>6900000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="E1042" t="n">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="F1042" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1042" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1043">
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>6900000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1043" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="E1043" t="n">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="F1043" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G1043" t="n">
         <v>4</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
+          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>7700000000</v>
+        <v>3200000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E1044" t="n">
-        <v>400</v>
+        <v>198</v>
       </c>
       <c r="F1044" t="n">
         <v>5</v>
       </c>
       <c r="G1044" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
+          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>2500000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1045" t="n">
         <v>250</v>
       </c>
       <c r="E1045" t="n">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="F1045" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1045" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,23 +29713,23 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
+          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>3200000000</v>
+        <v>1550000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E1046" t="n">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="F1046" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1046" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1046" t="n">
         <v>1</v>
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
+          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>13000000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>250</v>
+        <v>1100</v>
       </c>
       <c r="E1047" t="n">
-        <v>318</v>
+        <v>2028</v>
       </c>
       <c r="F1047" t="n">
         <v>5</v>
       </c>
       <c r="G1047" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,26 +29769,26 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
+          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>1550000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E1048" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="F1048" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1048" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
+          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>27000000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E1049" t="n">
-        <v>2028</v>
+        <v>1000</v>
       </c>
       <c r="F1049" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1049" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,26 +29825,26 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>7700000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>600</v>
+        <v>135</v>
       </c>
       <c r="E1050" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="F1050" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1050" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051">
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
+          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>24000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E1051" t="n">
-        <v>1000</v>
+        <v>353</v>
       </c>
       <c r="F1051" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1051" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1051" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,26 +29881,26 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
+          <t>Dijual Rumah Mewah di Pondok Indah .</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>2600000000</v>
+        <v>33000000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>135</v>
+        <v>750</v>
       </c>
       <c r="E1052" t="n">
-        <v>30</v>
+        <v>607</v>
       </c>
       <c r="F1052" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1052" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053">
@@ -29909,26 +29909,26 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>21000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="E1053" t="n">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="F1053" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1053" t="n">
         <v>4</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054">
@@ -29937,26 +29937,26 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah di Pondok Indah .</t>
+          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>33000000000</v>
+        <v>18500000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>750</v>
+        <v>245</v>
       </c>
       <c r="E1054" t="n">
-        <v>607</v>
+        <v>260</v>
       </c>
       <c r="F1054" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1054" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055">
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
+          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>6900000000</v>
+        <v>24500000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="E1055" t="n">
-        <v>76</v>
+        <v>787</v>
       </c>
       <c r="F1055" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1055" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,26 +29993,26 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>18500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>245</v>
+        <v>375</v>
       </c>
       <c r="E1056" t="n">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="F1056" t="n">
         <v>4</v>
       </c>
       <c r="G1056" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>24500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="E1057" t="n">
-        <v>787</v>
+        <v>76</v>
       </c>
       <c r="F1057" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1057" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1057" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,26 +30049,26 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
+          <t>Rumah Tinggal Jalan Kedondong</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>6900000000</v>
+        <v>1470000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1058" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1058" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1058" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059">
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
+          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>6900000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="E1059" t="n">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="F1059" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1059" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Rumah Tinggal Jalan Kedondong</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>1470000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E1060" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F1060" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1060" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1060" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,23 +30133,23 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
+          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>3500000000</v>
+        <v>2900000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E1061" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="F1061" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1061" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1061" t="n">
         <v>1</v>
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>6900000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="E1062" t="n">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F1062" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1062" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>7700000000</v>
+        <v>170000000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E1063" t="n">
-        <v>400</v>
+        <v>2835</v>
       </c>
       <c r="F1063" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1063" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>2900000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E1064" t="n">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="F1064" t="n">
         <v>4</v>
       </c>
       <c r="G1064" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,20 +30245,20 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
+          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>1200000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="E1065" t="n">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="F1065" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1065" t="n">
         <v>3</v>
@@ -30273,26 +30273,26 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
+          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>170000000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="E1066" t="n">
-        <v>2835</v>
+        <v>580</v>
       </c>
       <c r="F1066" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1066" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1066" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>35000000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="E1067" t="n">
-        <v>406</v>
+        <v>114</v>
       </c>
       <c r="F1067" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1067" t="n">
         <v>4</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,26 +30329,26 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>3000000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="E1068" t="n">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="F1068" t="n">
         <v>4</v>
       </c>
       <c r="G1068" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -30357,26 +30357,26 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
+          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>11500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E1069" t="n">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="F1069" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1069" t="n">
         <v>4</v>
       </c>
       <c r="H1069" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,26 +30385,26 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>2750000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="E1070" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F1070" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1070" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,23 +30413,23 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>1830000000</v>
+        <v>1450000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E1071" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F1071" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1071" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1071" t="n">
         <v>2</v>
@@ -30441,26 +30441,26 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
+          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>6900000000</v>
+        <v>880000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="E1072" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F1072" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1072" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,17 +30469,17 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>7090000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="E1073" t="n">
-        <v>76</v>
+        <v>696</v>
       </c>
       <c r="F1073" t="n">
         <v>3</v>
@@ -30488,7 +30488,7 @@
         <v>3</v>
       </c>
       <c r="H1073" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
+          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>1450000000</v>
+        <v>2150000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="E1074" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F1074" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1074" t="n">
         <v>3</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>880000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="E1075" t="n">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F1075" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1075" t="n">
         <v>3</v>
       </c>
       <c r="H1075" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>13500000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>325</v>
+        <v>500</v>
       </c>
       <c r="E1076" t="n">
-        <v>696</v>
+        <v>400</v>
       </c>
       <c r="F1076" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1076" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1076" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
+          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>2150000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E1077" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F1077" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>New House Full Furnished Kemang Selatan</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>2400000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>130</v>
+        <v>760</v>
       </c>
       <c r="E1078" t="n">
-        <v>117</v>
+        <v>518</v>
       </c>
       <c r="F1078" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1078" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,26 +30637,26 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>7500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>500</v>
+        <v>88</v>
       </c>
       <c r="E1079" t="n">
-        <v>400</v>
+        <v>55</v>
       </c>
       <c r="F1079" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1079" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1079" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -30665,23 +30665,23 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
+          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>1200000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="E1080" t="n">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="F1080" t="n">
         <v>3</v>
       </c>
       <c r="G1080" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1080" t="n">
         <v>2</v>
@@ -30693,26 +30693,26 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>New House Full Furnished Kemang Selatan</t>
+          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>38000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>760</v>
+        <v>670</v>
       </c>
       <c r="E1081" t="n">
-        <v>518</v>
+        <v>287</v>
       </c>
       <c r="F1081" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1081" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -30721,23 +30721,23 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>2600000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E1082" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1082" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1082" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1082" t="n">
         <v>2</v>
@@ -30749,23 +30749,23 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
+          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>4800000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1083" t="n">
         <v>250</v>
       </c>
       <c r="E1083" t="n">
-        <v>390</v>
+        <v>153</v>
       </c>
       <c r="F1083" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1083" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1083" t="n">
         <v>2</v>
@@ -30777,23 +30777,23 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>15000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="E1084" t="n">
-        <v>287</v>
+        <v>383</v>
       </c>
       <c r="F1084" t="n">
         <v>4</v>
       </c>
       <c r="G1084" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1084" t="n">
         <v>2</v>
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>25000000000</v>
+        <v>54000000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="E1085" t="n">
-        <v>982</v>
+        <v>1200</v>
       </c>
       <c r="F1085" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1085" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1085" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,23 +30833,23 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>2830000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="E1086" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="F1086" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1086" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1086" t="n">
         <v>2</v>
@@ -30861,23 +30861,23 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>8500000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E1087" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="F1087" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1087" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1087" t="n">
         <v>3</v>
@@ -30889,26 +30889,26 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>15000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>1005</v>
+        <v>384</v>
       </c>
       <c r="E1088" t="n">
-        <v>308</v>
+        <v>1111</v>
       </c>
       <c r="F1088" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1088" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>9500000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>257</v>
+        <v>1500</v>
       </c>
       <c r="E1089" t="n">
-        <v>306</v>
+        <v>634</v>
       </c>
       <c r="F1089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1089" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,20 +30945,20 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>4500000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="E1090" t="n">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="F1090" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1090" t="n">
         <v>4</v>
@@ -30973,23 +30973,23 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>16000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>616</v>
+        <v>185</v>
       </c>
       <c r="E1091" t="n">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="F1091" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1091" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1091" t="n">
         <v>2</v>
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
+          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>54000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="E1092" t="n">
-        <v>1200</v>
+        <v>230</v>
       </c>
       <c r="F1092" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1092" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1092" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
+          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>7700000000</v>
+        <v>120000000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>216</v>
+        <v>2100</v>
       </c>
       <c r="E1093" t="n">
-        <v>270</v>
+        <v>1025</v>
       </c>
       <c r="F1093" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1093" t="n">
         <v>5</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>7090000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="E1094" t="n">
-        <v>76</v>
+        <v>650</v>
       </c>
       <c r="F1094" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1094" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,26 +31085,26 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>15500000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="E1095" t="n">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="F1095" t="n">
         <v>3</v>
       </c>
       <c r="G1095" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1095" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,26 +31113,26 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
+          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>13500000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="E1096" t="n">
-        <v>1111</v>
+        <v>72</v>
       </c>
       <c r="F1096" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1096" t="n">
         <v>3</v>
       </c>
       <c r="H1096" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097">
@@ -31141,26 +31141,26 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>41900000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>720</v>
+        <v>130</v>
       </c>
       <c r="E1097" t="n">
-        <v>634</v>
+        <v>117</v>
       </c>
       <c r="F1097" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1097" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1097" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098">
@@ -31169,26 +31169,26 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>85000000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="E1098" t="n">
-        <v>634</v>
+        <v>404</v>
       </c>
       <c r="F1098" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1098" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1098" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,26 +31197,26 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>2500000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="E1099" t="n">
-        <v>128</v>
+        <v>404</v>
       </c>
       <c r="F1099" t="n">
         <v>3</v>
       </c>
       <c r="G1099" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1100">
@@ -31225,26 +31225,26 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>2500000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>185</v>
+        <v>400</v>
       </c>
       <c r="E1100" t="n">
-        <v>128</v>
+        <v>350</v>
       </c>
       <c r="F1100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1100" t="n">
         <v>4</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1101">
@@ -31253,26 +31253,26 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>2600000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>88</v>
+        <v>1050</v>
       </c>
       <c r="E1101" t="n">
-        <v>55</v>
+        <v>627</v>
       </c>
       <c r="F1101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1102">
@@ -31281,26 +31281,26 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>6600000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E1102" t="n">
-        <v>378</v>
+        <v>696</v>
       </c>
       <c r="F1102" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1102" t="n">
         <v>3</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1103">
@@ -31309,26 +31309,26 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>3000000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>180</v>
+        <v>796</v>
       </c>
       <c r="E1103" t="n">
-        <v>230</v>
+        <v>864</v>
       </c>
       <c r="F1103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1104">
@@ -31337,26 +31337,26 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>120000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>2100</v>
+        <v>650</v>
       </c>
       <c r="E1104" t="n">
-        <v>1025</v>
+        <v>854</v>
       </c>
       <c r="F1104" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1104" t="n">
         <v>5</v>
       </c>
       <c r="H1104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1105">
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>2830000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>112</v>
+        <v>452</v>
       </c>
       <c r="E1105" t="n">
-        <v>70</v>
+        <v>1165</v>
       </c>
       <c r="F1105" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1105" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1105" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>48000000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E1106" t="n">
-        <v>650</v>
+        <v>538</v>
       </c>
       <c r="F1106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1106" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>5750000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>180</v>
+        <v>1100</v>
       </c>
       <c r="E1107" t="n">
-        <v>279</v>
+        <v>540</v>
       </c>
       <c r="F1107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>1900000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>94</v>
+        <v>500</v>
       </c>
       <c r="E1108" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="F1108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,17 +31477,17 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>2400000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E1109" t="n">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F1109" t="n">
         <v>2</v>
@@ -31496,7 +31496,7 @@
         <v>1</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,17 +31505,17 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>7890000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1110" t="n">
         <v>250</v>
       </c>
       <c r="E1110" t="n">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="F1110" t="n">
         <v>3</v>
@@ -31524,7 +31524,7 @@
         <v>2</v>
       </c>
       <c r="H1110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,26 +31533,26 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>7800000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1111" t="n">
         <v>300</v>
       </c>
       <c r="E1111" t="n">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="F1111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112">
@@ -31561,17 +31561,17 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>31900000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1112" t="n">
         <v>400</v>
       </c>
       <c r="E1112" t="n">
-        <v>350</v>
+        <v>682</v>
       </c>
       <c r="F1112" t="n">
         <v>5</v>
@@ -31580,7 +31580,7 @@
         <v>4</v>
       </c>
       <c r="H1112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,26 +31589,26 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>44000000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>1050</v>
+        <v>810</v>
       </c>
       <c r="E1113" t="n">
-        <v>627</v>
+        <v>338</v>
       </c>
       <c r="F1113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1113" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1114">
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>13900000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>325</v>
+        <v>2000</v>
       </c>
       <c r="E1114" t="n">
-        <v>696</v>
+        <v>670</v>
       </c>
       <c r="F1114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1114" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>39900000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>796</v>
+        <v>871</v>
       </c>
       <c r="E1115" t="n">
-        <v>864</v>
+        <v>317</v>
       </c>
       <c r="F1115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1115" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>22000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>650</v>
+        <v>75</v>
       </c>
       <c r="E1116" t="n">
-        <v>854</v>
+        <v>81</v>
       </c>
       <c r="F1116" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>53500000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>452</v>
+        <v>180</v>
       </c>
       <c r="E1117" t="n">
-        <v>1165</v>
+        <v>250</v>
       </c>
       <c r="F1117" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1117" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1117" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>34900000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>800</v>
+        <v>825</v>
       </c>
       <c r="E1118" t="n">
-        <v>538</v>
+        <v>768</v>
       </c>
       <c r="F1118" t="n">
         <v>6</v>
       </c>
       <c r="G1118" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1118" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,26 +31757,26 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>48000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>1100</v>
+        <v>380</v>
       </c>
       <c r="E1119" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="F1119" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1119" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1120">
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>55000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E1120" t="n">
-        <v>500</v>
+        <v>238</v>
       </c>
       <c r="F1120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,26 +31813,26 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>1500000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="E1121" t="n">
-        <v>106</v>
+        <v>675</v>
       </c>
       <c r="F1121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1121" t="n">
         <v>1</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>3600000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>250</v>
+        <v>725</v>
       </c>
       <c r="E1122" t="n">
-        <v>144</v>
+        <v>448</v>
       </c>
       <c r="F1122" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G1122" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H1122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,26 +31869,26 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>3700000000</v>
+        <v>20500000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="E1123" t="n">
-        <v>143</v>
+        <v>982</v>
       </c>
       <c r="F1123" t="n">
         <v>5</v>
       </c>
       <c r="G1123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1123" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1124">
@@ -31897,26 +31897,26 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>7900000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="E1124" t="n">
-        <v>682</v>
+        <v>270</v>
       </c>
       <c r="F1124" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,26 +31925,26 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>48000000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="E1125" t="n">
-        <v>338</v>
+        <v>517</v>
       </c>
       <c r="F1125" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1125" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -31953,26 +31953,26 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>62000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>2000</v>
+        <v>375</v>
       </c>
       <c r="E1126" t="n">
-        <v>670</v>
+        <v>76</v>
       </c>
       <c r="F1126" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -31981,17 +31981,17 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>46000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>871</v>
+        <v>375</v>
       </c>
       <c r="E1127" t="n">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="F1127" t="n">
         <v>4</v>
@@ -32009,23 +32009,23 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Rumah Strategis 7 Menit ke Pintu Tol Lenteng Agung 3 Bebas Banjir J38850</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>1500000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="E1128" t="n">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="F1128" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1128" t="n">
         <v>1</v>
@@ -32037,23 +32037,23 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Rumah Luas 2 Lantai 12 Menit ke Gerbang Tol Andara 4 Hadap Timur J38922</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>5700000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1129" t="n">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E1129" t="n">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="F1129" t="n">
         <v>3</v>
       </c>
       <c r="G1129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1129" t="n">
         <v>1</v>
@@ -32065,26 +32065,26 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Rumah 2 Lantai 15 Menit ke One Belpark Mall Siap Huni Bebas Banjir J-25000</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>32000000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>825</v>
+        <v>135</v>
       </c>
       <c r="E1130" t="n">
-        <v>768</v>
+        <v>82</v>
       </c>
       <c r="F1130" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -32093,26 +32093,26 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>Rumah Minimalis Terawat 17 Menit ke One Belpark Mall Dibantu KPR J34039</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>14000000000</v>
+        <v>1220000000</v>
       </c>
       <c r="D1131" t="n">
-        <v>380</v>
+        <v>120</v>
       </c>
       <c r="E1131" t="n">
-        <v>300</v>
+        <v>86</v>
       </c>
       <c r="F1131" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -32121,26 +32121,26 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
+          <t>Rumah LB 155 SHM Siap KPR 18 Menit ke AEON Mall Tanjung Barat J33899</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>6500000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1132" t="n">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="F1132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G1132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133">
@@ -32149,26 +32149,26 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>15500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>350</v>
+        <v>88</v>
       </c>
       <c r="E1133" t="n">
-        <v>675</v>
+        <v>55</v>
       </c>
       <c r="F1133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1133" t="n">
         <v>1</v>
       </c>
       <c r="H1133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134">
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
+          <t>Rumah Minimalis 8 Menit ke Gerbang Tol Brigif SHM Hadap Timur J26013</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>30000000000</v>
+        <v>2230000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>725</v>
+        <v>120</v>
       </c>
       <c r="E1134" t="n">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="F1134" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G1134" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,26 +32205,26 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
+          <t>Rumah 1 Lantai Tenang Di Pondok Indah - Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>20500000000</v>
+        <v>28900000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>650</v>
+        <v>445</v>
       </c>
       <c r="E1135" t="n">
-        <v>982</v>
+        <v>756</v>
       </c>
       <c r="F1135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -32233,26 +32233,26 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>Rumah Luas LT 180 Dekat Cilandak 10 Menit ke RS Bebas Banjir J30974</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>25000000000</v>
+        <v>1770000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E1136" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="F1136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,26 +32261,362 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>38000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>760</v>
+        <v>112</v>
       </c>
       <c r="E1137" t="n">
-        <v>517</v>
+        <v>70</v>
       </c>
       <c r="F1137" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G1137" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lt SHM Siap Huni 15 Menit ke Stasiun MRT Lebak Bulus Grab J-35553</t>
+        </is>
+      </c>
+      <c r="C1138" t="n">
+        <v>2550000000</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>119</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>84</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1138" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1139" t="n">
+        <v>41900000000</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>634</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1139" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1140" t="n">
+        <v>6600000000</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>378</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1141" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+        </is>
+      </c>
+      <c r="C1142" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1142" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1142" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1143" t="n">
+        <v>9500000000</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>257</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1143" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+        </is>
+      </c>
+      <c r="C1144" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>982</v>
+      </c>
+      <c r="F1144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1144" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1145" t="n">
+        <v>8500000000</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1145" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+        </is>
+      </c>
+      <c r="C1146" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>308</v>
+      </c>
+      <c r="F1146" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1146" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1147" t="n">
+        <v>8800000000</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>120</v>
+      </c>
+      <c r="F1147" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1147" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+        </is>
+      </c>
+      <c r="C1148" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1148" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1148" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+        </is>
+      </c>
+      <c r="C1149" t="n">
+        <v>6000000000</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1149"/>
+  <dimension ref="A1:H1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29489,23 +29489,23 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Rumah Strategis Di Tengah Kota</t>
+          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>7800000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="E1038" t="n">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="F1038" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1038" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1038" t="n">
         <v>2</v>
@@ -29517,23 +29517,23 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1039" t="n">
-        <v>9000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1039" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E1039" t="n">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="F1039" t="n">
         <v>4</v>
       </c>
       <c r="G1039" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1039" t="n">
         <v>2</v>
@@ -29545,7 +29545,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1040" t="n">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>6900000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="E1041" t="n">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="F1041" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1041" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,26 +29601,26 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
+          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>7700000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1042" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E1042" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="F1042" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1042" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1042" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043">
@@ -29629,23 +29629,23 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
+          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>2500000000</v>
+        <v>3200000000</v>
       </c>
       <c r="D1043" t="n">
         <v>250</v>
       </c>
       <c r="E1043" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="F1043" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1043" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1043" t="n">
         <v>1</v>
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
+          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>3200000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1044" t="n">
         <v>250</v>
       </c>
       <c r="E1044" t="n">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="F1044" t="n">
         <v>5</v>
       </c>
       <c r="G1044" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1044" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
+          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>13000000000</v>
+        <v>1550000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E1045" t="n">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="F1045" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1045" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1045" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,26 +29713,26 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
+          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>1550000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E1046" t="n">
-        <v>81</v>
+        <v>2028</v>
       </c>
       <c r="F1046" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1046" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
+          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>27000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E1047" t="n">
-        <v>2028</v>
+        <v>400</v>
       </c>
       <c r="F1047" t="n">
         <v>5</v>
       </c>
       <c r="G1047" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,26 +29769,26 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
+          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>7700000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E1048" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F1048" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1048" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1048" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,26 +29797,26 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>24000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>1200</v>
+        <v>135</v>
       </c>
       <c r="E1049" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="F1049" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1049" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1049" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050">
@@ -29825,23 +29825,23 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
+          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>2600000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="E1050" t="n">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="F1050" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1050" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1050" t="n">
         <v>1</v>
@@ -29853,26 +29853,26 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
+          <t>Dijual Rumah Mewah di Pondok Indah .</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>21000000000</v>
+        <v>33000000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E1051" t="n">
-        <v>353</v>
+        <v>607</v>
       </c>
       <c r="F1051" t="n">
         <v>5</v>
       </c>
       <c r="G1051" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052">
@@ -29881,23 +29881,23 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah di Pondok Indah .</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>33000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="E1052" t="n">
-        <v>607</v>
+        <v>76</v>
       </c>
       <c r="F1052" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1052" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1052" t="n">
         <v>2</v>
@@ -29909,26 +29909,26 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
+          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>6900000000</v>
+        <v>18500000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>375</v>
+        <v>245</v>
       </c>
       <c r="E1053" t="n">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="F1053" t="n">
         <v>4</v>
       </c>
       <c r="G1053" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -29937,26 +29937,26 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
+          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>18500000000</v>
+        <v>24500000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>245</v>
+        <v>600</v>
       </c>
       <c r="E1054" t="n">
-        <v>260</v>
+        <v>787</v>
       </c>
       <c r="F1054" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1054" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1055">
@@ -29965,26 +29965,26 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>24500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1055" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="E1055" t="n">
-        <v>787</v>
+        <v>76</v>
       </c>
       <c r="F1055" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1055" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1055" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29993,7 +29993,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
         </is>
       </c>
       <c r="C1056" t="n">
@@ -30021,26 +30021,26 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
+          <t>Rumah Tinggal Jalan Kedondong</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>6900000000</v>
+        <v>1470000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1057" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1057" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1057" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058">
@@ -30049,23 +30049,23 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Rumah Tinggal Jalan Kedondong</t>
+          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>1470000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E1058" t="n">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="F1058" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1058" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1058" t="n">
         <v>1</v>
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>3500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E1059" t="n">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="F1059" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1059" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,26 +30105,26 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>7700000000</v>
+        <v>2900000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E1060" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="F1060" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1060" t="n">
         <v>5</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061">
@@ -30133,23 +30133,23 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
+          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>2900000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E1061" t="n">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="F1061" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1061" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1061" t="n">
         <v>1</v>
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
+          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>1200000000</v>
+        <v>170000000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>81</v>
+        <v>1400</v>
       </c>
       <c r="E1062" t="n">
-        <v>54</v>
+        <v>2835</v>
       </c>
       <c r="F1062" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1062" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1062" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>170000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="E1063" t="n">
-        <v>2835</v>
+        <v>406</v>
       </c>
       <c r="F1063" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1063" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1063" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>35000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>750</v>
+        <v>190</v>
       </c>
       <c r="E1064" t="n">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="F1064" t="n">
         <v>4</v>
       </c>
       <c r="G1064" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,23 +30245,23 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
+          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>3000000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="E1065" t="n">
-        <v>135</v>
+        <v>580</v>
       </c>
       <c r="F1065" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1065" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1065" t="n">
         <v>1</v>
@@ -30273,17 +30273,17 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>11500000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="E1066" t="n">
-        <v>580</v>
+        <v>114</v>
       </c>
       <c r="F1066" t="n">
         <v>5</v>
@@ -30292,7 +30292,7 @@
         <v>4</v>
       </c>
       <c r="H1066" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -30301,20 +30301,20 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>2750000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="E1067" t="n">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F1067" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1067" t="n">
         <v>4</v>
@@ -30329,17 +30329,17 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>1830000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="E1068" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F1068" t="n">
         <v>4</v>
@@ -30357,11 +30357,11 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>6900000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1069" t="n">
         <v>375</v>
@@ -30370,13 +30370,13 @@
         <v>76</v>
       </c>
       <c r="F1069" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1069" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070">
@@ -30385,14 +30385,14 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>7090000000</v>
+        <v>1450000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="E1070" t="n">
         <v>76</v>
@@ -30404,7 +30404,7 @@
         <v>3</v>
       </c>
       <c r="H1070" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
+          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>1450000000</v>
+        <v>880000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E1071" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F1071" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1071" t="n">
         <v>3</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,26 +30441,26 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>880000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="E1072" t="n">
-        <v>42</v>
+        <v>696</v>
       </c>
       <c r="F1072" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1072" t="n">
         <v>3</v>
       </c>
       <c r="H1072" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,26 +30469,26 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>13500000000</v>
+        <v>2150000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="E1073" t="n">
-        <v>696</v>
+        <v>90</v>
       </c>
       <c r="F1073" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1073" t="n">
         <v>3</v>
       </c>
       <c r="H1073" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -30497,26 +30497,26 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>2150000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="E1074" t="n">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="F1074" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1074" t="n">
         <v>3</v>
       </c>
       <c r="H1074" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075">
@@ -30525,26 +30525,26 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>2400000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="E1075" t="n">
-        <v>117</v>
+        <v>400</v>
       </c>
       <c r="F1075" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1075" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -30553,26 +30553,26 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>7500000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
       <c r="E1076" t="n">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="F1076" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1076" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1076" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077">
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
+          <t>New House Full Furnished Kemang Selatan</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>1200000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>75</v>
+        <v>760</v>
       </c>
       <c r="E1077" t="n">
-        <v>64</v>
+        <v>518</v>
       </c>
       <c r="F1077" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1077" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,26 +30609,26 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>New House Full Furnished Kemang Selatan</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>38000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>760</v>
+        <v>88</v>
       </c>
       <c r="E1078" t="n">
-        <v>518</v>
+        <v>55</v>
       </c>
       <c r="F1078" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1078" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1078" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -30637,17 +30637,17 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>2600000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="E1079" t="n">
-        <v>55</v>
+        <v>390</v>
       </c>
       <c r="F1079" t="n">
         <v>3</v>
@@ -30665,23 +30665,23 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
+          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>4800000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="E1080" t="n">
-        <v>390</v>
+        <v>287</v>
       </c>
       <c r="F1080" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1080" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1080" t="n">
         <v>2</v>
@@ -30693,23 +30693,23 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>15000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>670</v>
+        <v>112</v>
       </c>
       <c r="E1081" t="n">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="F1081" t="n">
         <v>4</v>
       </c>
       <c r="G1081" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1081" t="n">
         <v>2</v>
@@ -30721,20 +30721,20 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>2830000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="E1082" t="n">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="F1082" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1082" t="n">
         <v>4</v>
@@ -30749,23 +30749,23 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>4500000000</v>
+        <v>16000000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>250</v>
+        <v>616</v>
       </c>
       <c r="E1083" t="n">
-        <v>153</v>
+        <v>383</v>
       </c>
       <c r="F1083" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1083" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1083" t="n">
         <v>2</v>
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>16000000000</v>
+        <v>54000000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>616</v>
+        <v>1000</v>
       </c>
       <c r="E1084" t="n">
-        <v>383</v>
+        <v>1200</v>
       </c>
       <c r="F1084" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1084" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
+          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>54000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>1000</v>
+        <v>216</v>
       </c>
       <c r="E1085" t="n">
-        <v>1200</v>
+        <v>270</v>
       </c>
       <c r="F1085" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1085" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H1085" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,26 +30833,26 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
+          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>7700000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>216</v>
+        <v>384</v>
       </c>
       <c r="E1086" t="n">
-        <v>270</v>
+        <v>1111</v>
       </c>
       <c r="F1086" t="n">
         <v>5</v>
       </c>
       <c r="G1086" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -30861,26 +30861,26 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>15500000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>340</v>
+        <v>1500</v>
       </c>
       <c r="E1087" t="n">
-        <v>350</v>
+        <v>634</v>
       </c>
       <c r="F1087" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1087" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1087" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,26 +30889,26 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>13500000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="E1088" t="n">
-        <v>1111</v>
+        <v>128</v>
       </c>
       <c r="F1088" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1088" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089">
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>85000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>1500</v>
+        <v>185</v>
       </c>
       <c r="E1089" t="n">
-        <v>634</v>
+        <v>128</v>
       </c>
       <c r="F1089" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1089" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1089" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,23 +30945,23 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>2500000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1090" t="n">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="F1090" t="n">
         <v>3</v>
       </c>
       <c r="G1090" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1090" t="n">
         <v>2</v>
@@ -30973,26 +30973,26 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
+          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>2500000000</v>
+        <v>120000000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>185</v>
+        <v>2100</v>
       </c>
       <c r="E1091" t="n">
-        <v>128</v>
+        <v>1025</v>
       </c>
       <c r="F1091" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1091" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>3000000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="E1092" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="F1092" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1092" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>120000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="E1093" t="n">
-        <v>1025</v>
+        <v>279</v>
       </c>
       <c r="F1093" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1093" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1093" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
+          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>48000000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>600</v>
+        <v>94</v>
       </c>
       <c r="E1094" t="n">
-        <v>650</v>
+        <v>72</v>
       </c>
       <c r="F1094" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1094" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1094" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,26 +31085,26 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>5750000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E1095" t="n">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="F1095" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1095" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,26 +31113,26 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>1900000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="E1096" t="n">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="F1096" t="n">
         <v>3</v>
       </c>
       <c r="G1096" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1097">
@@ -31141,26 +31141,26 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>2400000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E1097" t="n">
-        <v>117</v>
+        <v>404</v>
       </c>
       <c r="F1097" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1097" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1098">
@@ -31169,26 +31169,26 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>7890000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1098" t="n">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="F1098" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1098" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1098" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,26 +31197,26 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>7800000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="E1099" t="n">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="F1099" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1099" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1099" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1100">
@@ -31225,26 +31225,26 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>31900000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="E1100" t="n">
-        <v>350</v>
+        <v>696</v>
       </c>
       <c r="F1100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1101">
@@ -31253,17 +31253,17 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>44000000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>1050</v>
+        <v>796</v>
       </c>
       <c r="E1101" t="n">
-        <v>627</v>
+        <v>864</v>
       </c>
       <c r="F1101" t="n">
         <v>5</v>
@@ -31272,7 +31272,7 @@
         <v>5</v>
       </c>
       <c r="H1101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1102">
@@ -31281,26 +31281,26 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>13900000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="E1102" t="n">
-        <v>696</v>
+        <v>854</v>
       </c>
       <c r="F1102" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1102" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1103">
@@ -31309,26 +31309,26 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>39900000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>796</v>
+        <v>452</v>
       </c>
       <c r="E1103" t="n">
-        <v>864</v>
+        <v>1165</v>
       </c>
       <c r="F1103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1103" t="n">
         <v>5</v>
       </c>
       <c r="H1103" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1104">
@@ -31337,23 +31337,23 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>22000000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E1104" t="n">
-        <v>854</v>
+        <v>538</v>
       </c>
       <c r="F1104" t="n">
         <v>6</v>
       </c>
       <c r="G1104" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1104" t="n">
         <v>5</v>
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>53500000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>452</v>
+        <v>1100</v>
       </c>
       <c r="E1105" t="n">
-        <v>1165</v>
+        <v>540</v>
       </c>
       <c r="F1105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1105" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1105" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>34900000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E1106" t="n">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="F1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1106" t="n">
         <v>6</v>
-      </c>
-      <c r="G1106" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1106" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>48000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>1100</v>
+        <v>65</v>
       </c>
       <c r="E1107" t="n">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F1107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1107" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1107" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>55000000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E1108" t="n">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="F1108" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1108" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,26 +31477,26 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>1500000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E1109" t="n">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F1109" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,26 +31505,26 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>3600000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1110" t="n">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="F1110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,26 +31533,26 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>3700000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>300</v>
+        <v>810</v>
       </c>
       <c r="E1111" t="n">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="F1111" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1111" t="n">
         <v>4</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1112">
@@ -31561,26 +31561,26 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>7900000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E1112" t="n">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F1112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,17 +31589,17 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>48000000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="E1113" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F1113" t="n">
         <v>4</v>
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>62000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="E1114" t="n">
-        <v>670</v>
+        <v>81</v>
       </c>
       <c r="F1114" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>46000000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>871</v>
+        <v>180</v>
       </c>
       <c r="E1115" t="n">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F1115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1115" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>1500000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>75</v>
+        <v>825</v>
       </c>
       <c r="E1116" t="n">
-        <v>81</v>
+        <v>768</v>
       </c>
       <c r="F1116" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>5700000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="E1117" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F1117" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1117" t="n">
         <v>3</v>
       </c>
       <c r="H1117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>32000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>825</v>
+        <v>150</v>
       </c>
       <c r="E1118" t="n">
-        <v>768</v>
+        <v>238</v>
       </c>
       <c r="F1118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G1118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,26 +31757,26 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>14000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="E1119" t="n">
-        <v>300</v>
+        <v>675</v>
       </c>
       <c r="F1119" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G1119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1120">
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
+          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>6500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>150</v>
+        <v>725</v>
       </c>
       <c r="E1120" t="n">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="F1120" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,23 +31813,23 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
+          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>15500000000</v>
+        <v>20500000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="E1121" t="n">
-        <v>675</v>
+        <v>982</v>
       </c>
       <c r="F1121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1121" t="n">
         <v>4</v>
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>30000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>725</v>
+        <v>90</v>
       </c>
       <c r="E1122" t="n">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="F1122" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G1122" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,26 +31869,26 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>20500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>650</v>
+        <v>760</v>
       </c>
       <c r="E1123" t="n">
-        <v>982</v>
+        <v>517</v>
       </c>
       <c r="F1123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -31897,26 +31897,26 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>Rumah Strategis 7 Menit ke Pintu Tol Lenteng Agung 3 Bebas Banjir J38850</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>25000000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E1124" t="n">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="F1124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125">
@@ -31925,26 +31925,26 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Rumah Luas 2 Lantai 12 Menit ke Gerbang Tol Andara 4 Hadap Timur J38922</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>38000000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>760</v>
+        <v>171</v>
       </c>
       <c r="E1125" t="n">
-        <v>517</v>
+        <v>181</v>
       </c>
       <c r="F1125" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1125" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126">
@@ -31953,23 +31953,23 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Rumah 2 Lantai 15 Menit ke One Belpark Mall Siap Huni Bebas Banjir J-25000</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>7090000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>375</v>
+        <v>135</v>
       </c>
       <c r="E1126" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F1126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1126" t="n">
         <v>1</v>
@@ -31981,26 +31981,26 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Rumah Minimalis Terawat 17 Menit ke One Belpark Mall Dibantu KPR J34039</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>6900000000</v>
+        <v>1220000000</v>
       </c>
       <c r="D1127" t="n">
-        <v>375</v>
+        <v>120</v>
       </c>
       <c r="E1127" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F1127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1127" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128">
@@ -32009,23 +32009,23 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Rumah Strategis 7 Menit ke Pintu Tol Lenteng Agung 3 Bebas Banjir J38850</t>
+          <t>Rumah LB 155 SHM Siap KPR 18 Menit ke AEON Mall Tanjung Barat J33899</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>2550000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E1128" t="n">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="F1128" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1128" t="n">
         <v>1</v>
@@ -32037,17 +32037,17 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Rumah Luas 2 Lantai 12 Menit ke Gerbang Tol Andara 4 Hadap Timur J38922</t>
+          <t>Rumah Minimalis 8 Menit ke Gerbang Tol Brigif SHM Hadap Timur J26013</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2550000000</v>
+        <v>2230000000</v>
       </c>
       <c r="D1129" t="n">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E1129" t="n">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="F1129" t="n">
         <v>3</v>
@@ -32065,17 +32065,17 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai 15 Menit ke One Belpark Mall Siap Huni Bebas Banjir J-25000</t>
+          <t>Rumah 1 Lantai Tenang Di Pondok Indah - Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>1900000000</v>
+        <v>28900000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="E1130" t="n">
-        <v>82</v>
+        <v>756</v>
       </c>
       <c r="F1130" t="n">
         <v>4</v>
@@ -32093,23 +32093,23 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Rumah Minimalis Terawat 17 Menit ke One Belpark Mall Dibantu KPR J34039</t>
+          <t>Rumah Luas LT 180 Dekat Cilandak 10 Menit ke RS Bebas Banjir J30974</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>1220000000</v>
+        <v>1770000000</v>
       </c>
       <c r="D1131" t="n">
         <v>120</v>
       </c>
       <c r="E1131" t="n">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="F1131" t="n">
         <v>3</v>
       </c>
       <c r="G1131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1131" t="n">
         <v>1</v>
@@ -32121,23 +32121,23 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Rumah LB 155 SHM Siap KPR 18 Menit ke AEON Mall Tanjung Barat J33899</t>
+          <t>Rumah 2 Lt SHM Siap Huni 15 Menit ke Stasiun MRT Lebak Bulus Grab J-35553</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>5500000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E1132" t="n">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="F1132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1132" t="n">
         <v>1</v>
@@ -32149,23 +32149,23 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>2600000000</v>
+        <v>6600000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="E1133" t="n">
-        <v>55</v>
+        <v>378</v>
       </c>
       <c r="F1133" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1133" t="n">
         <v>1</v>
@@ -32177,23 +32177,23 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Rumah Minimalis 8 Menit ke Gerbang Tol Brigif SHM Hadap Timur J26013</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>2230000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1134" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1134" t="n">
         <v>120</v>
       </c>
-      <c r="E1134" t="n">
-        <v>112</v>
-      </c>
       <c r="F1134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1134" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1134" t="n">
         <v>1</v>
@@ -32205,20 +32205,20 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Rumah 1 Lantai Tenang Di Pondok Indah - Jakarta Selatan</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>28900000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>445</v>
+        <v>300</v>
       </c>
       <c r="E1135" t="n">
-        <v>756</v>
+        <v>200</v>
       </c>
       <c r="F1135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1135" t="n">
         <v>4</v>
@@ -32233,23 +32233,23 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Rumah Luas LT 180 Dekat Cilandak 10 Menit ke RS Bebas Banjir J30974</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>1770000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>120</v>
+        <v>375</v>
       </c>
       <c r="E1136" t="n">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="F1136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1136" t="n">
         <v>1</v>
@@ -32261,26 +32261,26 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Termurah Brawijaya Townhouse Kebayoran Baru, Dijual Rumah Hunian Property di Dalam Townhouse Perumahan Komplek Akses Jalan Lebar Akses Mudah di Lingkungan Elit dan Lokasi Strategis Sentral Dekat dengan MRT, Dharmawangsa, Senopati, di Jalan Brawijaya, Keba</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>2830000000</v>
+        <v>15200000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="E1137" t="n">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="F1137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -32289,26 +32289,26 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Rumah 2 Lt SHM Siap Huni 15 Menit ke Stasiun MRT Lebak Bulus Grab J-35553</t>
+          <t>Best Deal Luas Tanah Besar Siap Huni Kebayoran Baru! Rumah Modern Tropical Mewah Cantik Property Hunian Dijual Semi Furnished di Lokasi Strategis Akses dan Lingkungan Nyaman dan Asri di Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>2550000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1138" t="n">
-        <v>119</v>
+        <v>360</v>
       </c>
       <c r="E1138" t="n">
-        <v>84</v>
+        <v>307</v>
       </c>
       <c r="F1138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1138" t="n">
         <v>4</v>
       </c>
       <c r="H1138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139">
@@ -32317,17 +32317,17 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Best Deal Kebayoran Baru! Rumah Siap Huni Cantik Kebayoran Baru Jalan Lebar Dekat Hanya 200 Meter ke MRT Lingkungan Nyaman dan Aman di Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>41900000000</v>
+        <v>10100000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="E1139" t="n">
-        <v>634</v>
+        <v>200</v>
       </c>
       <c r="F1139" t="n">
         <v>4</v>
@@ -32336,7 +32336,7 @@
         <v>5</v>
       </c>
       <c r="H1139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140">
@@ -32345,23 +32345,23 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
+          <t>Best Price Harga Bagus Pondok Indah untuk Bangun Rumah Impian, Rumah Hitung Tanah Dijual Luas Besar dengan Harga Murah Jalan Depan Lebar Lingkungan Nyaman Aman dan Asri di Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>6600000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1140" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="E1140" t="n">
-        <v>378</v>
+        <v>198</v>
       </c>
       <c r="F1140" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1140" t="n">
         <v>1</v>
@@ -32373,23 +32373,23 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Best Price Pondok Indah Rumah Siap Huni! Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>2600000000</v>
+        <v>6760000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="E1141" t="n">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="F1141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1141" t="n">
         <v>1</v>
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Best Price Siap Huni Pondok Indah Rumah Cantik Terawat! Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>6900000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="E1142" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1142" t="n">
         <v>4</v>
       </c>
       <c r="G1142" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,26 +32429,26 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>9500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="E1143" t="n">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="F1143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144">
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>25000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>650</v>
+        <v>340</v>
       </c>
       <c r="E1144" t="n">
-        <v>982</v>
+        <v>350</v>
       </c>
       <c r="F1144" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,26 +32485,26 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>8500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1145" t="n">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F1145" t="n">
         <v>4</v>
       </c>
       <c r="G1145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146">
@@ -32513,26 +32513,26 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+          <t>Rumah Siap Huni 2M-An di Tebet Dekat Kokas, Saharjo dan Tebet Raya!</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>15000000000</v>
+        <v>2300000000</v>
       </c>
       <c r="D1146" t="n">
-        <v>1005</v>
+        <v>142</v>
       </c>
       <c r="E1146" t="n">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="F1146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1147">
@@ -32541,23 +32541,23 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>8800000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="E1147" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F1147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1147" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1147" t="n">
         <v>1</v>
@@ -32569,26 +32569,26 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>6900000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>375</v>
+        <v>720</v>
       </c>
       <c r="E1148" t="n">
-        <v>76</v>
+        <v>634</v>
       </c>
       <c r="F1148" t="n">
         <v>4</v>
       </c>
       <c r="G1148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1149">
@@ -32597,26 +32597,866 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>6000000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1149" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F1149" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1149" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1150" t="n">
+        <v>4900000000</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>325</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>340</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1151" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>Rumah Strategis Di Tengah Kota</t>
+        </is>
+      </c>
+      <c r="C1152" t="n">
+        <v>7800000000</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>240</v>
+      </c>
+      <c r="F1152" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1152" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+        </is>
+      </c>
+      <c r="C1153" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1154" t="n">
+        <v>8500000000</v>
+      </c>
+      <c r="D1154" t="n">
         <v>300</v>
       </c>
-      <c r="E1149" t="n">
-        <v>200</v>
-      </c>
-      <c r="F1149" t="n">
-        <v>3</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1149" t="n">
-        <v>1</v>
+      <c r="E1154" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+        </is>
+      </c>
+      <c r="C1155" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>1005</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>308</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1155" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1156" t="n">
+        <v>9500000000</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>257</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>306</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1156" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+        </is>
+      </c>
+      <c r="C1157" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>982</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1157" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1158" t="n">
+        <v>3750000000</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1158" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1159" t="n">
+        <v>42000000000</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>1925</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1159" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1160" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>1343</v>
+      </c>
+      <c r="F1160" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1160" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1161" t="n">
+        <v>31500000000</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>2620</v>
+      </c>
+      <c r="F1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1161" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1162" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>385</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>504</v>
+      </c>
+      <c r="F1162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1163" t="n">
+        <v>3950000000</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>161</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1164" t="n">
+        <v>3950000000</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>162</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1165" t="n">
+        <v>3950000000</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>162</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+        </is>
+      </c>
+      <c r="C1166" t="n">
+        <v>11500000000</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>446</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+        </is>
+      </c>
+      <c r="C1167" t="n">
+        <v>9500000000</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>361</v>
+      </c>
+      <c r="F1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+        </is>
+      </c>
+      <c r="C1168" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+        </is>
+      </c>
+      <c r="C1169" t="n">
+        <v>35000000000</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>406</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1170" t="n">
+        <v>30000000000</v>
+      </c>
+      <c r="D1170" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1170" t="n">
+        <v>448</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+        </is>
+      </c>
+      <c r="C1171" t="n">
+        <v>26000000000</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>1374</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>1493</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>16</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+        </is>
+      </c>
+      <c r="C1172" t="n">
+        <v>18000000000</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>467</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>899</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
+        </is>
+      </c>
+      <c r="C1173" t="n">
+        <v>12500000000</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>520</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>720</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+        </is>
+      </c>
+      <c r="C1174" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+        </is>
+      </c>
+      <c r="C1175" t="n">
+        <v>42000000000</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>620</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>18</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+        </is>
+      </c>
+      <c r="C1176" t="n">
+        <v>21000000000</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>960</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+        </is>
+      </c>
+      <c r="C1177" t="n">
+        <v>13000000000</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>150</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>300</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+        </is>
+      </c>
+      <c r="C1178" t="n">
+        <v>40500000000</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>534</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+        </is>
+      </c>
+      <c r="C1179" t="n">
+        <v>12000000000</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>550</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1179"/>
+  <dimension ref="A1:H1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29433,26 +29433,26 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
         </is>
       </c>
       <c r="C1036" t="n">
-        <v>8000000000</v>
+        <v>45000000000</v>
       </c>
       <c r="D1036" t="n">
-        <v>430</v>
+        <v>1800</v>
       </c>
       <c r="E1036" t="n">
-        <v>250</v>
+        <v>1225</v>
       </c>
       <c r="F1036" t="n">
         <v>5</v>
       </c>
       <c r="G1036" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1037">
@@ -29461,26 +29461,26 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Area Id 9843</t>
+          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1037" t="n">
-        <v>45000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1037" t="n">
-        <v>1800</v>
+        <v>500</v>
       </c>
       <c r="E1037" t="n">
-        <v>1225</v>
+        <v>420</v>
       </c>
       <c r="F1037" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1037" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1037" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1038">
@@ -29489,23 +29489,23 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Harga Paling Kompetitif Di Kemang, Jakarta Selatan</t>
+          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1038" t="n">
-        <v>9000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1038" t="n">
-        <v>500</v>
+        <v>375</v>
       </c>
       <c r="E1038" t="n">
-        <v>420</v>
+        <v>76</v>
       </c>
       <c r="F1038" t="n">
         <v>4</v>
       </c>
       <c r="G1038" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1038" t="n">
         <v>2</v>
@@ -29517,7 +29517,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru 4 Lantai Ada Lift di Pusat Jaksel Lokasi Strategis</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
         </is>
       </c>
       <c r="C1039" t="n">
@@ -29545,26 +29545,26 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel 4 Lantai</t>
+          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>6900000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1040" t="n">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="E1040" t="n">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="F1040" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1040" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1041">
@@ -29573,26 +29573,26 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>RUMAH TEBET TURUN HARGA JADI  8.1 M DEKAT NJOP</t>
+          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
         </is>
       </c>
       <c r="C1041" t="n">
-        <v>7700000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1041" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E1041" t="n">
-        <v>400</v>
+        <v>130</v>
       </c>
       <c r="F1041" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1041" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1041" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -29601,23 +29601,23 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>RUMAH KOST 10 PINTU DI TEBET ! GOOD INVEST</t>
+          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
         </is>
       </c>
       <c r="C1042" t="n">
-        <v>2500000000</v>
+        <v>3200000000</v>
       </c>
       <c r="D1042" t="n">
         <v>250</v>
       </c>
       <c r="E1042" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="F1042" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1042" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1042" t="n">
         <v>1</v>
@@ -29629,26 +29629,26 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>SHM 198 M2 ! 16 JT PERMETER AKSES 2 MOBIL DI TEBET, DEKAT MALL KOKAS</t>
+          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
         </is>
       </c>
       <c r="C1043" t="n">
-        <v>3200000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1043" t="n">
         <v>250</v>
       </c>
       <c r="E1043" t="n">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="F1043" t="n">
         <v>5</v>
       </c>
       <c r="G1043" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1043" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1044">
@@ -29657,26 +29657,26 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>AKSES 3 MOBIL - RUMAH MEWAH DI TEBET TIMUR ( SEMI FURNISHED )</t>
+          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>13000000000</v>
+        <v>1550000000</v>
       </c>
       <c r="D1044" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E1044" t="n">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="F1044" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1044" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1044" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045">
@@ -29685,26 +29685,26 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>1 M An ! ( Dekat Akses 3 Mobil) Tebet Barat</t>
+          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
         </is>
       </c>
       <c r="C1045" t="n">
-        <v>1550000000</v>
+        <v>27000000000</v>
       </c>
       <c r="D1045" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E1045" t="n">
-        <v>81</v>
+        <v>2028</v>
       </c>
       <c r="F1045" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1045" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1045" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046">
@@ -29713,26 +29713,26 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Dibawah Njop Kemang Rumah Klassik Tidak Banjir</t>
+          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
         </is>
       </c>
       <c r="C1046" t="n">
-        <v>27000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1046" t="n">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="E1046" t="n">
-        <v>2028</v>
+        <v>400</v>
       </c>
       <c r="F1046" t="n">
         <v>5</v>
       </c>
       <c r="G1046" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -29741,26 +29741,26 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>BEST PRICE TEBET ! AKSES LEBAR, RUMAH SIAP HUNI</t>
+          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
         </is>
       </c>
       <c r="C1047" t="n">
-        <v>7700000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1047" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E1047" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F1047" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1047" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1047" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1048">
@@ -29769,26 +29769,26 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tebet Jak-sel</t>
+          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
         </is>
       </c>
       <c r="C1048" t="n">
-        <v>24000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1048" t="n">
-        <v>1200</v>
+        <v>135</v>
       </c>
       <c r="E1048" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="F1048" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1048" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1048" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049">
@@ -29797,23 +29797,23 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Murah Hanya 7 Menit Jalan Kaki Dari Mrt Fatmawati</t>
+          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
         </is>
       </c>
       <c r="C1049" t="n">
-        <v>2600000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1049" t="n">
-        <v>135</v>
+        <v>700</v>
       </c>
       <c r="E1049" t="n">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="F1049" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1049" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1049" t="n">
         <v>1</v>
@@ -29825,26 +29825,26 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Pondok Indah Luxurious Modern Classic, Premium Area, Siap Huni</t>
+          <t>Dijual Rumah Mewah di Pondok Indah .</t>
         </is>
       </c>
       <c r="C1050" t="n">
-        <v>21000000000</v>
+        <v>33000000000</v>
       </c>
       <c r="D1050" t="n">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="E1050" t="n">
-        <v>353</v>
+        <v>607</v>
       </c>
       <c r="F1050" t="n">
         <v>5</v>
       </c>
       <c r="G1050" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051">
@@ -29853,23 +29853,23 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah di Pondok Indah .</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
         </is>
       </c>
       <c r="C1051" t="n">
-        <v>33000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1051" t="n">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="E1051" t="n">
-        <v>607</v>
+        <v>76</v>
       </c>
       <c r="F1051" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1051" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1051" t="n">
         <v>2</v>
@@ -29881,26 +29881,26 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Tengah Jaksel Dekat SCBD</t>
+          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
         </is>
       </c>
       <c r="C1052" t="n">
-        <v>6900000000</v>
+        <v>18500000000</v>
       </c>
       <c r="D1052" t="n">
-        <v>375</v>
+        <v>245</v>
       </c>
       <c r="E1052" t="n">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="F1052" t="n">
         <v>4</v>
       </c>
       <c r="G1052" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -29909,26 +29909,26 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni Lokasi Sangat Strategis Di Jl. Ciniru, Kebayoran Baru, Jak-sel Rumah Bagus SHM</t>
+          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>18500000000</v>
+        <v>24500000000</v>
       </c>
       <c r="D1053" t="n">
-        <v>245</v>
+        <v>600</v>
       </c>
       <c r="E1053" t="n">
-        <v>260</v>
+        <v>787</v>
       </c>
       <c r="F1053" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1053" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1054">
@@ -29937,26 +29937,26 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Jual Rumah Mewah Di Kemang, Jak-sel Dilingkungan Yang Aman Dan Nyaman</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>24500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1054" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="E1054" t="n">
-        <v>787</v>
+        <v>76</v>
       </c>
       <c r="F1054" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1054" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1054" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055">
@@ -29965,7 +29965,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD 4 Lantai Jarang Ada</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
         </is>
       </c>
       <c r="C1055" t="n">
@@ -29993,26 +29993,26 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Tengah Jaksel Dekat SCBD Jarang Ada</t>
+          <t>Rumah Tinggal Jalan Kedondong</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>6900000000</v>
+        <v>1470000000</v>
       </c>
       <c r="D1056" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1056" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1056" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1056" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057">
@@ -30021,23 +30021,23 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Rumah Tinggal Jalan Kedondong</t>
+          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>1470000000</v>
+        <v>3500000000</v>
       </c>
       <c r="D1057" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E1057" t="n">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="F1057" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1057" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1057" t="n">
         <v>1</v>
@@ -30049,26 +30049,26 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Dijual Rumah Daklam Townhouse Harga Murah Di Cilandak Tb Simatupang Jakarta Selatan</t>
+          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>3500000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1058" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E1058" t="n">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="F1058" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1058" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -30077,26 +30077,26 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Dijual Rumah Di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>7700000000</v>
+        <v>2900000000</v>
       </c>
       <c r="D1059" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E1059" t="n">
-        <v>400</v>
+        <v>155</v>
       </c>
       <c r="F1059" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1059" t="n">
         <v>5</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060">
@@ -30105,23 +30105,23 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Hunian Cantik Siap Huni Bergaya Scandinavian Modern Akses Jalan Raya Jagakarsa Jakarta Selatan</t>
+          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>2900000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1060" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E1060" t="n">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="F1060" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1060" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1060" t="n">
         <v>1</v>
@@ -30133,26 +30133,26 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Rumah Baru Di Pejaten Timur. Pasar Minggu Kota Jakarta Selatan Bebas Banjir, Strategis, Dekat Akses ********</t>
+          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>1200000000</v>
+        <v>170000000000</v>
       </c>
       <c r="D1061" t="n">
-        <v>81</v>
+        <v>1400</v>
       </c>
       <c r="E1061" t="n">
-        <v>54</v>
+        <v>2835</v>
       </c>
       <c r="F1061" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1061" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1061" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1062">
@@ -30161,26 +30161,26 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>View Golf Private Swimming Pool Pondok Indah Siap Huni Asri Tenang Bebas Banjir Kirim Loi</t>
+          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>170000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1062" t="n">
-        <v>1400</v>
+        <v>190</v>
       </c>
       <c r="E1062" t="n">
-        <v>2835</v>
+        <v>135</v>
       </c>
       <c r="F1062" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1062" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1062" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -30189,26 +30189,26 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>35000000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1063" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E1063" t="n">
-        <v>406</v>
+        <v>580</v>
       </c>
       <c r="F1063" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1063" t="n">
         <v>4</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -30217,26 +30217,26 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Turun Harga ! Rumah Nyaman &amp; Aman 2 Lantai Depan Taman</t>
+          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>3000000000</v>
+        <v>2750000000</v>
       </c>
       <c r="D1064" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="E1064" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="F1064" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1064" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065">
@@ -30245,26 +30245,26 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Rumah Murah di Gandaria Kebayoran Baru, SHM, 6Kt</t>
+          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>11500000000</v>
+        <v>1830000000</v>
       </c>
       <c r="D1065" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="E1065" t="n">
-        <v>580</v>
+        <v>67</v>
       </c>
       <c r="F1065" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1065" t="n">
         <v>4</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -30273,20 +30273,20 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Rumah Mewah + Rooftop Dekat Toll Di Jl. Moh. Kahfi 1, Jagakarsa Jaksel</t>
+          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>2750000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1066" t="n">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="E1066" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="F1066" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1066" t="n">
         <v>4</v>
@@ -30301,26 +30301,26 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Rumah + Rooftop Siap Huni Deket Toll Brigif Di Jagakarsa Jaksel</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>1830000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1067" t="n">
-        <v>140</v>
+        <v>375</v>
       </c>
       <c r="E1067" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F1067" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1067" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068">
@@ -30329,23 +30329,23 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 LT Kondisi Baru di Pusat Jakarta Selatan Lokasi Strategis</t>
+          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>6900000000</v>
+        <v>1450000000</v>
       </c>
       <c r="D1068" t="n">
-        <v>375</v>
+        <v>115</v>
       </c>
       <c r="E1068" t="n">
         <v>76</v>
       </c>
       <c r="F1068" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1068" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1068" t="n">
         <v>2</v>
@@ -30357,20 +30357,20 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>7090000000</v>
+        <v>880000000</v>
       </c>
       <c r="D1069" t="n">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="E1069" t="n">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="F1069" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1069" t="n">
         <v>3</v>
@@ -30385,17 +30385,17 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Jual Rumah Classic Modern Siap Huni Dekat Kahfi 2 Jagakarsa</t>
+          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>1450000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1070" t="n">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="E1070" t="n">
-        <v>76</v>
+        <v>696</v>
       </c>
       <c r="F1070" t="n">
         <v>3</v>
@@ -30404,7 +30404,7 @@
         <v>3</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1071">
@@ -30413,26 +30413,26 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>Jual Rumah Murah 2 Lantai 800 An Juta di Jagakarsa</t>
+          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>880000000</v>
+        <v>2150000000</v>
       </c>
       <c r="D1071" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E1071" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F1071" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1071" t="n">
         <v>3</v>
       </c>
       <c r="H1071" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -30441,17 +30441,17 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Dijual Rumah Exclusive Di Kawasan Elit Kemang Jaksel</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>13500000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1072" t="n">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="E1072" t="n">
-        <v>696</v>
+        <v>117</v>
       </c>
       <c r="F1072" t="n">
         <v>3</v>
@@ -30460,7 +30460,7 @@
         <v>3</v>
       </c>
       <c r="H1072" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073">
@@ -30469,23 +30469,23 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Rumah Cantik. Bebas Banjir Sudah SHM 2Km ke MRT Lebak Bulus Jakarta Selatan</t>
+          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>2150000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1073" t="n">
-        <v>98</v>
+        <v>500</v>
       </c>
       <c r="E1073" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="F1073" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1073" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1073" t="n">
         <v>3</v>
@@ -30497,23 +30497,23 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>2400000000</v>
+        <v>1200000000</v>
       </c>
       <c r="D1074" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E1074" t="n">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F1074" t="n">
         <v>3</v>
       </c>
       <c r="G1074" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1074" t="n">
         <v>2</v>
@@ -30525,23 +30525,23 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Tebet Barat Dalam Akses 2 Mobil Tebet Barat Jaksel</t>
+          <t>New House Full Furnished Kemang Selatan</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>7500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1075" t="n">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="E1075" t="n">
-        <v>400</v>
+        <v>518</v>
       </c>
       <c r="F1075" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1075" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1075" t="n">
         <v>3</v>
@@ -30553,23 +30553,23 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Rumah Cantik Modern .Siap Huni 5Km ke Lebak Bulus</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>1200000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1076" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E1076" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F1076" t="n">
         <v>3</v>
       </c>
       <c r="G1076" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1076" t="n">
         <v>2</v>
@@ -30581,26 +30581,26 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>New House Full Furnished Kemang Selatan</t>
+          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>38000000000</v>
+        <v>4800000000</v>
       </c>
       <c r="D1077" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="E1077" t="n">
-        <v>518</v>
+        <v>390</v>
       </c>
       <c r="F1077" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1077" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1077" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078">
@@ -30609,23 +30609,23 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>2600000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1078" t="n">
-        <v>88</v>
+        <v>670</v>
       </c>
       <c r="E1078" t="n">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="F1078" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1078" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1078" t="n">
         <v>2</v>
@@ -30637,23 +30637,23 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Rumah Dalam Komplek Dilebak Bulus Dekat Mrt Shm</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>4800000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1079" t="n">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="E1079" t="n">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="F1079" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1079" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1079" t="n">
         <v>2</v>
@@ -30665,23 +30665,23 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Rumah Privat Pool American Clasic Dekat MRT Fatmawati Belakang Citos SHM Jalan Lebar</t>
+          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>15000000000</v>
+        <v>4500000000</v>
       </c>
       <c r="D1080" t="n">
-        <v>670</v>
+        <v>250</v>
       </c>
       <c r="E1080" t="n">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="F1080" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1080" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1080" t="n">
         <v>2</v>
@@ -30693,23 +30693,23 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>2830000000</v>
+        <v>16000000000</v>
       </c>
       <c r="D1081" t="n">
-        <v>112</v>
+        <v>616</v>
       </c>
       <c r="E1081" t="n">
-        <v>70</v>
+        <v>383</v>
       </c>
       <c r="F1081" t="n">
         <v>4</v>
       </c>
       <c r="G1081" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1081" t="n">
         <v>2</v>
@@ -30721,26 +30721,26 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Townhouse di Buncit Jatipadang Ragunan Dekat ke Halte Busway SHM</t>
+          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>4500000000</v>
+        <v>54000000000</v>
       </c>
       <c r="D1082" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="E1082" t="n">
-        <v>153</v>
+        <v>1200</v>
       </c>
       <c r="F1082" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1082" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1083">
@@ -30749,23 +30749,23 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Hook Di Pinang Perak Pondok Indah Shm Lokasi Bagus</t>
+          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>16000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="D1083" t="n">
-        <v>616</v>
+        <v>216</v>
       </c>
       <c r="E1083" t="n">
-        <v>383</v>
+        <v>270</v>
       </c>
       <c r="F1083" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1083" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1083" t="n">
         <v>2</v>
@@ -30777,26 +30777,26 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Rumah hitung tanah di permata hijau Jaksel lokasi terbaik shm</t>
+          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>54000000000</v>
+        <v>13500000000</v>
       </c>
       <c r="D1084" t="n">
-        <v>1000</v>
+        <v>384</v>
       </c>
       <c r="E1084" t="n">
-        <v>1200</v>
+        <v>1111</v>
       </c>
       <c r="F1084" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1084" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H1084" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085">
@@ -30805,26 +30805,26 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Di Cilandak Fatmawati Dekat Ke Stasiun Mrt Haji Nawi</t>
+          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>7700000000</v>
+        <v>85000000000</v>
       </c>
       <c r="D1085" t="n">
-        <v>216</v>
+        <v>1500</v>
       </c>
       <c r="E1085" t="n">
-        <v>270</v>
+        <v>634</v>
       </c>
       <c r="F1085" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1085" t="n">
         <v>5</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086">
@@ -30833,26 +30833,26 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Rumah Di Ampera Raya Ciladak Dekat Tol Lokasi Strategis</t>
+          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>13500000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1086" t="n">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="E1086" t="n">
-        <v>1111</v>
+        <v>128</v>
       </c>
       <c r="F1086" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1086" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087">
@@ -30861,26 +30861,26 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Rumah Konsep Modern Elegan &amp; Sangat Hommy Siap Huni Bebas Banjir Kawasan Super Elite Kebayoran Baru Area Dharmawangsa</t>
+          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>85000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="D1087" t="n">
-        <v>1500</v>
+        <v>185</v>
       </c>
       <c r="E1087" t="n">
-        <v>634</v>
+        <v>128</v>
       </c>
       <c r="F1087" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1087" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1087" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088">
@@ -30889,23 +30889,23 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Baru Akses Jalan Utama Khafi 1 Siap Huni Tanah Luas Free Canopy Bata Merah</t>
+          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>2500000000</v>
+        <v>3000000000</v>
       </c>
       <c r="D1088" t="n">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E1088" t="n">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="F1088" t="n">
         <v>3</v>
       </c>
       <c r="G1088" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1088" t="n">
         <v>2</v>
@@ -30917,26 +30917,26 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Rumah Baru Termurah Akses Utama Jl. Khafi 1 Siap Huni Tanah Luas Bata Merah</t>
+          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>2500000000</v>
+        <v>120000000000</v>
       </c>
       <c r="D1089" t="n">
-        <v>185</v>
+        <v>2100</v>
       </c>
       <c r="E1089" t="n">
-        <v>128</v>
+        <v>1025</v>
       </c>
       <c r="F1089" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1089" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1090">
@@ -30945,26 +30945,26 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Harus Terjual!! Murah Kios Ruko Dikalibata Strategis</t>
+          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
         </is>
       </c>
       <c r="C1090" t="n">
-        <v>3000000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1090" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="E1090" t="n">
-        <v>230</v>
+        <v>650</v>
       </c>
       <c r="F1090" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1090" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1091">
@@ -30973,26 +30973,26 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>For Sale Pondok Indah Jakarta Selatan Brand New A Luxury American Classic ******** ********:luas Tanah 1.025 M²luas Bangunan 2.100 M²private Liftprivate Swimming Pool3 Lantaikamar Tidur 4 + 3(staff)kamar Mandi 5 + 2 (staff)garasi 6 Mobilcarpot 4</t>
+          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>120000000000</v>
+        <v>5750000000</v>
       </c>
       <c r="D1091" t="n">
-        <v>2100</v>
+        <v>180</v>
       </c>
       <c r="E1091" t="n">
-        <v>1025</v>
+        <v>279</v>
       </c>
       <c r="F1091" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1091" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1091" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092">
@@ -31001,26 +31001,26 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Luxurious Modern Classic House Bukit Hijau, Fully Furnished By Lifetime Design. Private Pool. Posisi Hook, Depan Tamanluas Tanah 650 M²luas Bangunan 600 M²kamar Tidur 5 + 2 ( Semua Kamar Mandi Dalam )kamar Mandi 7 + 2 Lokasi Elite &amp; Favoritejalan Lebart</t>
+          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>48000000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1092" t="n">
-        <v>600</v>
+        <v>94</v>
       </c>
       <c r="E1092" t="n">
-        <v>650</v>
+        <v>72</v>
       </c>
       <c r="F1092" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1092" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H1092" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093">
@@ -31029,26 +31029,26 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Turun! Jual Rumah Townhouse Private 279m2 Di Lebak Bulus</t>
+          <t>ZENITPARC HYATT</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>5750000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1093" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E1093" t="n">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="F1093" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1093" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
@@ -31057,26 +31057,26 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Rumah Cantik Cluster Premium Dekat MRT Lebak Bulus dan Alses Jaksel serta Harga Termurah Dikelasnya</t>
+          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>1900000000</v>
+        <v>7890000000</v>
       </c>
       <c r="D1094" t="n">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="E1094" t="n">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="F1094" t="n">
         <v>3</v>
       </c>
       <c r="G1094" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1095">
@@ -31085,26 +31085,26 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>ZENITPARC HYATT</t>
+          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>2400000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1095" t="n">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="E1095" t="n">
-        <v>117</v>
+        <v>404</v>
       </c>
       <c r="F1095" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1095" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1096">
@@ -31113,26 +31113,26 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Dijual Bu Rumah Murah Harga 7 M An Harga Njop Tanah Luas Dekat Sekolah Internasional Dan Siap Huni Taman Luas Lokasi Strategis Area Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>7890000000</v>
+        <v>31900000000</v>
       </c>
       <c r="D1096" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1096" t="n">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="F1096" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1096" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1096" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1097">
@@ -31141,26 +31141,26 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Harga NJOP Bangunan 1 Lantai Harga 7 M An Dekat Sekolah Internasional dan Cocok untuk Investasi dan Tempat Tinggal Area Kemang Pejaten Barat Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>7800000000</v>
+        <v>44000000000</v>
       </c>
       <c r="D1097" t="n">
-        <v>300</v>
+        <v>1050</v>
       </c>
       <c r="E1097" t="n">
-        <v>404</v>
+        <v>627</v>
       </c>
       <c r="F1097" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1097" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1097" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1098">
@@ -31169,26 +31169,26 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Modern Cantik Asri Siap Huni Lokasi Strategis Dekat Blok M dan Senopati dan Sudirman dan Kemang dan Wijaya Dekat Senopati Area dan Dekat Mabes Area Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>31900000000</v>
+        <v>13900000000</v>
       </c>
       <c r="D1098" t="n">
-        <v>400</v>
+        <v>325</v>
       </c>
       <c r="E1098" t="n">
-        <v>350</v>
+        <v>696</v>
       </c>
       <c r="F1098" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1098" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1098" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1099">
@@ -31197,17 +31197,17 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Baru Mewah Dekat Sekolah Internasional Dan Dekat Mall Dan Bukit Golf Area Pondok Indah Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>44000000000</v>
+        <v>39900000000</v>
       </c>
       <c r="D1099" t="n">
-        <v>1050</v>
+        <v>796</v>
       </c>
       <c r="E1099" t="n">
-        <v>627</v>
+        <v>864</v>
       </c>
       <c r="F1099" t="n">
         <v>5</v>
@@ -31216,7 +31216,7 @@
         <v>5</v>
       </c>
       <c r="H1099" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1100">
@@ -31225,26 +31225,26 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Tanah Luas Harga Murah bisa Buat Tempat Tinggal atau bisa Buat Usaha atau Lainnya Dekat Kebayoran Baru dan Kuningan Lokasi Strategis Area Bangka Kemang Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>13900000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1100" t="n">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="E1100" t="n">
-        <v>696</v>
+        <v>854</v>
       </c>
       <c r="F1100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1100" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1101">
@@ -31253,26 +31253,26 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Cantik Asri Nuansa Bali Lokasi Dekat Sekolah Prancis dan MRT dan Resto dan Cafe Cipete Raya Area Cipete Cilandak Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>39900000000</v>
+        <v>53500000000</v>
       </c>
       <c r="D1101" t="n">
-        <v>796</v>
+        <v>452</v>
       </c>
       <c r="E1101" t="n">
-        <v>864</v>
+        <v>1165</v>
       </c>
       <c r="F1101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1101" t="n">
         <v>5</v>
       </c>
       <c r="H1101" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1102">
@@ -31281,23 +31281,23 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Murah Lokasi Strategis Area Kemang Dalam Jakarta Selatan</t>
+          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>22000000000</v>
+        <v>34900000000</v>
       </c>
       <c r="D1102" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="E1102" t="n">
-        <v>854</v>
+        <v>538</v>
       </c>
       <c r="F1102" t="n">
         <v>6</v>
       </c>
       <c r="G1102" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1102" t="n">
         <v>5</v>
@@ -31309,26 +31309,26 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah atau Mini Building Bekas Kantor Lokasi Strategis Pinggir Jalan Raya bisa Bangun Sampai 8 Lantai bisa untuk Kantor atau Kost Kostan atau Ruang Usaha atau Klinik atau Restoran atau Cafe atau Ruang Usaha Komersil Dekat Darmawangsa Brawijay</t>
+          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>53500000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1103" t="n">
-        <v>452</v>
+        <v>1100</v>
       </c>
       <c r="E1103" t="n">
-        <v>1165</v>
+        <v>540</v>
       </c>
       <c r="F1103" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1103" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1103" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1104">
@@ -31337,26 +31337,26 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Murah Dekat Simprug dan Senayan dan Pakubuwono Lokasi Strategis Area Hanglekir Kebayoran Baru Jakarta Selatan</t>
+          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>34900000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1104" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E1104" t="n">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="F1104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1104" t="n">
         <v>6</v>
-      </c>
-      <c r="G1104" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1104" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="1105">
@@ -31365,26 +31365,26 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Mewah Siap Huni Private Lift Area Mentri Pejabat Ambbasy Dekat Perkantoran dan Dekat Gatot Subroto dan Sudirman dan Dekat Menteng Area Mentri dan Kedutaan dan Perkantoran Area Mega Kuningan Jakarta Selatan</t>
+          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>48000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1105" t="n">
-        <v>1100</v>
+        <v>65</v>
       </c>
       <c r="E1105" t="n">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F1105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1106">
@@ -31393,26 +31393,26 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Dijual Rumah Mewah Lokasi Strategis Dekat Kemang Dan Mabes Dan Senopati Dan Sekolah Internasional Dan Dekat Area Darmawangsa Kebayoran Baru Jakarta Selatan</t>
+          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>55000000000</v>
+        <v>3600000000</v>
       </c>
       <c r="D1106" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="E1106" t="n">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="F1106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1106" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107">
@@ -31421,26 +31421,26 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Dijual Rumah Moh Kahfi 1 - 5 Menit ke Cilandak</t>
+          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>1500000000</v>
+        <v>3700000000</v>
       </c>
       <c r="D1107" t="n">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E1107" t="n">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="F1107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108">
@@ -31449,26 +31449,26 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Stategis, 5 Menit Ke Tb Simatupang ,butuh Minim Renovasi,</t>
+          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>3600000000</v>
+        <v>7900000000</v>
       </c>
       <c r="D1108" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E1108" t="n">
-        <v>144</v>
+        <v>682</v>
       </c>
       <c r="F1108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1109">
@@ -31477,26 +31477,26 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Rumah Bagus 3 Lantai dan Kolam Renang Jagakarsa Jakarta Selatan</t>
+          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>3700000000</v>
+        <v>48000000000</v>
       </c>
       <c r="D1109" t="n">
-        <v>300</v>
+        <v>810</v>
       </c>
       <c r="E1109" t="n">
-        <v>143</v>
+        <v>338</v>
       </c>
       <c r="F1109" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1109" t="n">
         <v>4</v>
       </c>
       <c r="H1109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110">
@@ -31505,26 +31505,26 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Rumah Murah Harga di Bawah Pasar di Bintaro Sektor 1 Jakartasel</t>
+          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>7900000000</v>
+        <v>62000000000</v>
       </c>
       <c r="D1110" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E1110" t="n">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F1110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1111">
@@ -31533,17 +31533,17 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Luxurious Brand New Kebayoran Baru Dengan Balcony View Scbd</t>
+          <t>2025 Modern House Kebayoran Baru For Sale</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>48000000000</v>
+        <v>46000000000</v>
       </c>
       <c r="D1111" t="n">
-        <v>810</v>
+        <v>871</v>
       </c>
       <c r="E1111" t="n">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F1111" t="n">
         <v>4</v>
@@ -31561,26 +31561,26 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>For Sale Brand New American Classic Pondok Indah Parkir 15 Mobil</t>
+          <t>For Sale Rumah Hitung Tanah Tebet</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>62000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="D1112" t="n">
-        <v>2000</v>
+        <v>75</v>
       </c>
       <c r="E1112" t="n">
-        <v>670</v>
+        <v>81</v>
       </c>
       <c r="F1112" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113">
@@ -31589,26 +31589,26 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2025 Modern House Kebayoran Baru For Sale</t>
+          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>46000000000</v>
+        <v>5700000000</v>
       </c>
       <c r="D1113" t="n">
-        <v>871</v>
+        <v>180</v>
       </c>
       <c r="E1113" t="n">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F1113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114">
@@ -31617,26 +31617,26 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>For Sale Rumah Hitung Tanah Tebet</t>
+          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>1500000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1114" t="n">
-        <v>75</v>
+        <v>825</v>
       </c>
       <c r="E1114" t="n">
-        <v>81</v>
+        <v>768</v>
       </c>
       <c r="F1114" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1114" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -31645,26 +31645,26 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>- Murah !! Dijual Cepat !! Rumah Siap Huni 10x25 dibawah NJOP di Niaga Hijau Pondok Indah</t>
+          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>5700000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1115" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="E1115" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F1115" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1115" t="n">
         <v>3</v>
       </c>
       <c r="H1115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -31673,26 +31673,26 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Rumah Hook Luas 850m 6+2 Kamar Shm Pondok Indah Dekat Pim</t>
+          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>32000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1116" t="n">
-        <v>825</v>
+        <v>150</v>
       </c>
       <c r="E1116" t="n">
-        <v>768</v>
+        <v>238</v>
       </c>
       <c r="F1116" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G1116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1117">
@@ -31701,26 +31701,26 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Rumah Nyaman Lebak Bulus Private Pool SHM Luas 400M 6+1 Kamar</t>
+          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>14000000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D1117" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="E1117" t="n">
-        <v>300</v>
+        <v>675</v>
       </c>
       <c r="F1117" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G1117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1118">
@@ -31729,26 +31729,26 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Khusus Investor | Cocok untuk Kost | Belakang Eka Hospital Tebet</t>
+          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>6500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1118" t="n">
-        <v>150</v>
+        <v>725</v>
       </c>
       <c r="E1118" t="n">
-        <v>238</v>
+        <v>448</v>
       </c>
       <c r="F1118" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G1118" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1119">
@@ -31757,23 +31757,23 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>Rumah Ex Cafe di Tebet | Lokasi Bisnis Ramai | Dekat Mall Kokas</t>
+          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>15500000000</v>
+        <v>20500000000</v>
       </c>
       <c r="D1119" t="n">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="E1119" t="n">
-        <v>675</v>
+        <v>982</v>
       </c>
       <c r="F1119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1119" t="n">
         <v>4</v>
@@ -31785,26 +31785,26 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Rumah Mewah Gaya Perancis Full Furnished Dalam Komplek Elit Tebet</t>
+          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
         </is>
       </c>
       <c r="C1120" t="n">
-        <v>30000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1120" t="n">
-        <v>725</v>
+        <v>90</v>
       </c>
       <c r="E1120" t="n">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="F1120" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G1120" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1121">
@@ -31813,26 +31813,26 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Turun Harga!! Dijual Rumah Lux Tropical di Cilandak, Siap Huni, Harga bisa Nego, SHM</t>
+          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>20500000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1121" t="n">
-        <v>650</v>
+        <v>760</v>
       </c>
       <c r="E1121" t="n">
-        <v>982</v>
+        <v>517</v>
       </c>
       <c r="F1121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1121" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -31841,26 +31841,26 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Rumah Lokasi Langka Wijaya 2 Super Strategis Lihat Jamin Beli</t>
+          <t>Rumah Strategis 7 Menit ke Pintu Tol Lenteng Agung 3 Bebas Banjir J38850</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>25000000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1122" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E1122" t="n">
-        <v>270</v>
+        <v>123</v>
       </c>
       <c r="F1122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123">
@@ -31869,26 +31869,26 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Rumah Classic Modern Siap Huni Fully Furnish Jual Cepat Jarang Ada Area Bebas Banjir</t>
+          <t>Rumah Luas 2 Lantai 12 Menit ke Gerbang Tol Andara 4 Hadap Timur J38922</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>38000000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1123" t="n">
-        <v>760</v>
+        <v>171</v>
       </c>
       <c r="E1123" t="n">
-        <v>517</v>
+        <v>181</v>
       </c>
       <c r="F1123" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G1123" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124">
@@ -31897,23 +31897,23 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Rumah Strategis 7 Menit ke Pintu Tol Lenteng Agung 3 Bebas Banjir J38850</t>
+          <t>Rumah 2 Lantai 15 Menit ke One Belpark Mall Siap Huni Bebas Banjir J-25000</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>2550000000</v>
+        <v>1900000000</v>
       </c>
       <c r="D1124" t="n">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E1124" t="n">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F1124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1124" t="n">
         <v>1</v>
@@ -31925,17 +31925,17 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Rumah Luas 2 Lantai 12 Menit ke Gerbang Tol Andara 4 Hadap Timur J38922</t>
+          <t>Rumah Minimalis Terawat 17 Menit ke One Belpark Mall Dibantu KPR J34039</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>2550000000</v>
+        <v>1220000000</v>
       </c>
       <c r="D1125" t="n">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E1125" t="n">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="F1125" t="n">
         <v>3</v>
@@ -31953,23 +31953,23 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai 15 Menit ke One Belpark Mall Siap Huni Bebas Banjir J-25000</t>
+          <t>Rumah LB 155 SHM Siap KPR 18 Menit ke AEON Mall Tanjung Barat J33899</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>1900000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1126" t="n">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E1126" t="n">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="F1126" t="n">
         <v>4</v>
       </c>
       <c r="G1126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1126" t="n">
         <v>1</v>
@@ -31981,17 +31981,17 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Rumah Minimalis Terawat 17 Menit ke One Belpark Mall Dibantu KPR J34039</t>
+          <t>Rumah Minimalis 8 Menit ke Gerbang Tol Brigif SHM Hadap Timur J26013</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>1220000000</v>
+        <v>2230000000</v>
       </c>
       <c r="D1127" t="n">
         <v>120</v>
       </c>
       <c r="E1127" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="F1127" t="n">
         <v>3</v>
@@ -32009,23 +32009,23 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Rumah LB 155 SHM Siap KPR 18 Menit ke AEON Mall Tanjung Barat J33899</t>
+          <t>Rumah 1 Lantai Tenang Di Pondok Indah - Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>5500000000</v>
+        <v>28900000000</v>
       </c>
       <c r="D1128" t="n">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="E1128" t="n">
-        <v>272</v>
+        <v>756</v>
       </c>
       <c r="F1128" t="n">
         <v>4</v>
       </c>
       <c r="G1128" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1128" t="n">
         <v>1</v>
@@ -32037,23 +32037,23 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Rumah Minimalis 8 Menit ke Gerbang Tol Brigif SHM Hadap Timur J26013</t>
+          <t>Rumah Luas LT 180 Dekat Cilandak 10 Menit ke RS Bebas Banjir J30974</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2230000000</v>
+        <v>1770000000</v>
       </c>
       <c r="D1129" t="n">
         <v>120</v>
       </c>
       <c r="E1129" t="n">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="F1129" t="n">
         <v>3</v>
       </c>
       <c r="G1129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1129" t="n">
         <v>1</v>
@@ -32065,20 +32065,20 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Rumah 1 Lantai Tenang Di Pondok Indah - Jakarta Selatan</t>
+          <t>Rumah 2 Lt SHM Siap Huni 15 Menit ke Stasiun MRT Lebak Bulus Grab J-35553</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>28900000000</v>
+        <v>2550000000</v>
       </c>
       <c r="D1130" t="n">
-        <v>445</v>
+        <v>119</v>
       </c>
       <c r="E1130" t="n">
-        <v>756</v>
+        <v>84</v>
       </c>
       <c r="F1130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1130" t="n">
         <v>4</v>
@@ -32093,20 +32093,20 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Rumah Luas LT 180 Dekat Cilandak 10 Menit ke RS Bebas Banjir J30974</t>
+          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>1770000000</v>
+        <v>6600000000</v>
       </c>
       <c r="D1131" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="E1131" t="n">
-        <v>180</v>
+        <v>378</v>
       </c>
       <c r="F1131" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1131" t="n">
         <v>3</v>
@@ -32121,23 +32121,23 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Rumah 2 Lt SHM Siap Huni 15 Menit ke Stasiun MRT Lebak Bulus Grab J-35553</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>2550000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="E1132" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="F1132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1132" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1132" t="n">
         <v>1</v>
@@ -32149,23 +32149,23 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Dijual Rumah TERMURAAAH di Bintaro Utara,Jakarta Selatan</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>6600000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E1133" t="n">
-        <v>378</v>
+        <v>200</v>
       </c>
       <c r="F1133" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1133" t="n">
         <v>1</v>
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Termurah Brawijaya Townhouse Kebayoran Baru, Dijual Rumah Hunian Property di Dalam Townhouse Perumahan Komplek Akses Jalan Lebar Akses Mudah di Lingkungan Elit dan Lokasi Strategis Sentral Dekat dengan MRT, Dharmawangsa, Senopati, di Jalan Brawijaya, Keba</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>8800000000</v>
+        <v>15200000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="E1134" t="n">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="F1134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1134" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,26 +32205,26 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Best Deal Luas Tanah Besar Siap Huni Kebayoran Baru! Rumah Modern Tropical Mewah Cantik Property Hunian Dijual Semi Furnished di Lokasi Strategis Akses dan Lingkungan Nyaman dan Asri di Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>6000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="E1135" t="n">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="F1135" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1135" t="n">
         <v>4</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136">
@@ -32233,26 +32233,26 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Best Deal Kebayoran Baru! Rumah Siap Huni Cantik Kebayoran Baru Jalan Lebar Dekat Hanya 200 Meter ke MRT Lingkungan Nyaman dan Aman di Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>7090000000</v>
+        <v>10100000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E1136" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1136" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,26 +32261,26 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Termurah Brawijaya Townhouse Kebayoran Baru, Dijual Rumah Hunian Property di Dalam Townhouse Perumahan Komplek Akses Jalan Lebar Akses Mudah di Lingkungan Elit dan Lokasi Strategis Sentral Dekat dengan MRT, Dharmawangsa, Senopati, di Jalan Brawijaya, Keba</t>
+          <t>Best Price Harga Bagus Pondok Indah untuk Bangun Rumah Impian, Rumah Hitung Tanah Dijual Luas Besar dengan Harga Murah Jalan Depan Lebar Lingkungan Nyaman Aman dan Asri di Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>15200000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="E1137" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F1137" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1137" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138">
@@ -32289,26 +32289,26 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Best Deal Luas Tanah Besar Siap Huni Kebayoran Baru! Rumah Modern Tropical Mewah Cantik Property Hunian Dijual Semi Furnished di Lokasi Strategis Akses dan Lingkungan Nyaman dan Asri di Kebayoran Baru, Jakarta Selatan</t>
+          <t>Best Price Pondok Indah Rumah Siap Huni! Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>15000000000</v>
+        <v>6760000000</v>
       </c>
       <c r="D1138" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="E1138" t="n">
-        <v>307</v>
+        <v>160</v>
       </c>
       <c r="F1138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1138" t="n">
         <v>4</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139">
@@ -32317,14 +32317,14 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Best Deal Kebayoran Baru! Rumah Siap Huni Cantik Kebayoran Baru Jalan Lebar Dekat Hanya 200 Meter ke MRT Lingkungan Nyaman dan Aman di Kebayoran Baru, Jakarta Selatan</t>
+          <t>Best Price Siap Huni Pondok Indah Rumah Cantik Terawat! Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>10100000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>400</v>
+        <v>219</v>
       </c>
       <c r="E1139" t="n">
         <v>200</v>
@@ -32336,7 +32336,7 @@
         <v>5</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140">
@@ -32345,23 +32345,23 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Best Price Harga Bagus Pondok Indah untuk Bangun Rumah Impian, Rumah Hitung Tanah Dijual Luas Besar dengan Harga Murah Jalan Depan Lebar Lingkungan Nyaman Aman dan Asri di Pondok Indah, Jakarta Selatan</t>
+          <t>Rumah Siap Huni 2M-An di Tebet Dekat Kokas, Saharjo dan Tebet Raya!</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>6500000000</v>
+        <v>2300000000</v>
       </c>
       <c r="D1140" t="n">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="E1140" t="n">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="F1140" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1140" t="n">
         <v>1</v>
@@ -32373,26 +32373,26 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Best Price Pondok Indah Rumah Siap Huni! Pondok Indah, Jakarta Selatan</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>6760000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="E1141" t="n">
-        <v>160</v>
+        <v>634</v>
       </c>
       <c r="F1141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1141" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1142">
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Best Price Siap Huni Pondok Indah Rumah Cantik Terawat! Pondok Indah, Jakarta Selatan</t>
+          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>9500000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>219</v>
+        <v>800</v>
       </c>
       <c r="E1142" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="F1142" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1142" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1142" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,23 +32429,23 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>2600000000</v>
+        <v>4900000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>88</v>
+        <v>325</v>
       </c>
       <c r="E1143" t="n">
-        <v>55</v>
+        <v>340</v>
       </c>
       <c r="F1143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1143" t="n">
         <v>1</v>
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>Rumah Strategis Di Tengah Kota</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>15500000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E1144" t="n">
-        <v>350</v>
+        <v>240</v>
       </c>
       <c r="F1144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1144" t="n">
         <v>4</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,26 +32485,26 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>6900000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>375</v>
+        <v>300</v>
       </c>
       <c r="E1145" t="n">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F1145" t="n">
         <v>4</v>
       </c>
       <c r="G1145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -32513,26 +32513,26 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni 2M-An di Tebet Dekat Kokas, Saharjo dan Tebet Raya!</t>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>2300000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1146" t="n">
-        <v>142</v>
+        <v>1005</v>
       </c>
       <c r="E1146" t="n">
-        <v>83</v>
+        <v>308</v>
       </c>
       <c r="F1146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1146" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
@@ -32541,26 +32541,26 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>2830000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="E1147" t="n">
-        <v>70</v>
+        <v>306</v>
       </c>
       <c r="F1147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148">
@@ -32569,20 +32569,20 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>41900000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>720</v>
+        <v>650</v>
       </c>
       <c r="E1148" t="n">
-        <v>634</v>
+        <v>982</v>
       </c>
       <c r="F1148" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1148" t="n">
         <v>5</v>
@@ -32597,26 +32597,26 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>23000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1149" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="E1149" t="n">
-        <v>1050</v>
+        <v>300</v>
       </c>
       <c r="F1149" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G1149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1149" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
@@ -32625,26 +32625,26 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
+          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>4900000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1150" t="n">
-        <v>325</v>
+        <v>900</v>
       </c>
       <c r="E1150" t="n">
-        <v>340</v>
+        <v>1925</v>
       </c>
       <c r="F1150" t="n">
         <v>5</v>
       </c>
       <c r="G1150" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1150" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1151">
@@ -32653,26 +32653,26 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>2600000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1151" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="E1151" t="n">
-        <v>117</v>
+        <v>1343</v>
       </c>
       <c r="F1151" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1151" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1152">
@@ -32681,26 +32681,26 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Rumah Strategis Di Tengah Kota</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>7800000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1152" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E1152" t="n">
-        <v>240</v>
+        <v>2620</v>
       </c>
       <c r="F1152" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1153">
@@ -32709,23 +32709,23 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>6900000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1153" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="E1153" t="n">
-        <v>76</v>
+        <v>504</v>
       </c>
       <c r="F1153" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1153" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1153" t="n">
         <v>2</v>
@@ -32737,26 +32737,26 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>8500000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1154" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="E1154" t="n">
-        <v>307</v>
+        <v>161</v>
       </c>
       <c r="F1154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1154" t="n">
         <v>3</v>
       </c>
       <c r="H1154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155">
@@ -32765,23 +32765,23 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>15000000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1155" t="n">
-        <v>1005</v>
+        <v>180</v>
       </c>
       <c r="E1155" t="n">
-        <v>308</v>
+        <v>162</v>
       </c>
       <c r="F1155" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1155" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1155" t="n">
         <v>2</v>
@@ -32793,20 +32793,20 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>9500000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1156" t="n">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="E1156" t="n">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="F1156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1156" t="n">
         <v>3</v>
@@ -32821,26 +32821,26 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>25000000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1157" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="E1157" t="n">
-        <v>982</v>
+        <v>446</v>
       </c>
       <c r="F1157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1157" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1157" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158">
@@ -32849,26 +32849,26 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>3750000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1158" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E1158" t="n">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="F1158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1158" t="n">
         <v>2</v>
       </c>
       <c r="H1158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1159">
@@ -32877,26 +32877,26 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>42000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1159" t="n">
-        <v>900</v>
+        <v>375</v>
       </c>
       <c r="E1159" t="n">
-        <v>1925</v>
+        <v>76</v>
       </c>
       <c r="F1159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1159" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1159" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160">
@@ -32905,26 +32905,26 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>25000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1160" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E1160" t="n">
-        <v>1343</v>
+        <v>406</v>
       </c>
       <c r="F1160" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1160" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1161">
@@ -32933,26 +32933,26 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>31500000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1161" t="n">
-        <v>400</v>
+        <v>274</v>
       </c>
       <c r="E1161" t="n">
-        <v>2620</v>
+        <v>448</v>
       </c>
       <c r="F1161" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1161" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -32961,26 +32961,26 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>32000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1162" t="n">
-        <v>385</v>
+        <v>1374</v>
       </c>
       <c r="E1162" t="n">
-        <v>504</v>
+        <v>1493</v>
       </c>
       <c r="F1162" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G1162" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1163">
@@ -32989,26 +32989,26 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>3950000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1163" t="n">
-        <v>180</v>
+        <v>467</v>
       </c>
       <c r="E1163" t="n">
-        <v>161</v>
+        <v>899</v>
       </c>
       <c r="F1163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1164">
@@ -33017,26 +33017,26 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>3950000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1164" t="n">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="E1164" t="n">
-        <v>162</v>
+        <v>720</v>
       </c>
       <c r="F1164" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1164" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1165">
@@ -33045,23 +33045,23 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>3950000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1165" t="n">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="E1165" t="n">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="F1165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1165" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1165" t="n">
         <v>2</v>
@@ -33073,26 +33073,26 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>11500000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1166" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E1166" t="n">
-        <v>446</v>
+        <v>620</v>
       </c>
       <c r="F1166" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1166" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1167">
@@ -33101,26 +33101,26 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>9500000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1167" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="E1167" t="n">
-        <v>361</v>
+        <v>960</v>
       </c>
       <c r="F1167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1167" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1167" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1168">
@@ -33129,26 +33129,26 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>6900000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1168" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E1168" t="n">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="F1168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -33157,23 +33157,23 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>35000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1169" t="n">
-        <v>650</v>
+        <v>350</v>
       </c>
       <c r="E1169" t="n">
-        <v>406</v>
+        <v>534</v>
       </c>
       <c r="F1169" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1169" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1169" t="n">
         <v>4</v>
@@ -33185,26 +33185,26 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>30000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1170" t="n">
-        <v>274</v>
+        <v>600</v>
       </c>
       <c r="E1170" t="n">
-        <v>448</v>
+        <v>550</v>
       </c>
       <c r="F1170" t="n">
         <v>4</v>
       </c>
       <c r="G1170" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -33213,26 +33213,26 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>26000000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1171" t="n">
-        <v>1374</v>
+        <v>375</v>
       </c>
       <c r="E1171" t="n">
-        <v>1493</v>
+        <v>76</v>
       </c>
       <c r="F1171" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G1171" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H1171" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172">
@@ -33241,26 +33241,26 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Best Price Hitung Tanah Dekat NJOP, Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>18000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1172" t="n">
-        <v>467</v>
+        <v>180</v>
       </c>
       <c r="E1172" t="n">
-        <v>899</v>
+        <v>198</v>
       </c>
       <c r="F1172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1172" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1172" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173">
@@ -33269,26 +33269,26 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>Under 7 M Pondok Indah Best Price Siap Huni Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>12500000000</v>
+        <v>6760000000</v>
       </c>
       <c r="D1173" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="E1173" t="n">
-        <v>720</v>
+        <v>160</v>
       </c>
       <c r="F1173" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G1173" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1173" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174">
@@ -33297,26 +33297,26 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Under 10 M Nego Dalam Komplek Pondok Indah. Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>6900000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1174" t="n">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="E1174" t="n">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="F1174" t="n">
         <v>4</v>
       </c>
       <c r="G1174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175">
@@ -33325,26 +33325,26 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Alam Asri Rumah Luxury Cantik Dekat Mall Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>42000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D1175" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E1175" t="n">
-        <v>620</v>
+        <v>353</v>
       </c>
       <c r="F1175" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1175" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H1175" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1176">
@@ -33353,26 +33353,26 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Brawijaya Townhouse 200 Meter ke Kemang Village dan MRT, Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>21000000000</v>
+        <v>15200000000</v>
       </c>
       <c r="D1176" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="E1176" t="n">
-        <v>960</v>
+        <v>196</v>
       </c>
       <c r="F1176" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1176" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1176" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -33381,26 +33381,26 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Best Deal Luxurious Tropical House, Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>13000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1177" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="E1177" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F1177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178">
@@ -33409,26 +33409,26 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>40500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1178" t="n">
-        <v>350</v>
+        <v>88</v>
       </c>
       <c r="E1178" t="n">
-        <v>534</v>
+        <v>55</v>
       </c>
       <c r="F1178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -33437,26 +33437,446 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>12000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1179" t="n">
-        <v>600</v>
+        <v>375</v>
       </c>
       <c r="E1179" t="n">
-        <v>550</v>
+        <v>76</v>
       </c>
       <c r="F1179" t="n">
         <v>4</v>
       </c>
       <c r="G1179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1179" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>Panglima Polim 10 M Nego Good Deal. Kebayoran Baru. Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1180" t="n">
+        <v>10100000000</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+        </is>
+      </c>
+      <c r="C1181" t="n">
+        <v>15500000000</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>340</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>Padmavilla Cilandak</t>
+        </is>
+      </c>
+      <c r="C1182" t="n">
+        <v>2830000000</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>112</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>Dijual Rumah dengan Private Pool Dalam Cluster di Dekat Stasiun MRT Lebak Bulus</t>
+        </is>
+      </c>
+      <c r="C1183" t="n">
+        <v>6000000000</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>128</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>252</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>Dijual Rumah di Nol Jalan Raya Suryo Senopati Jakarta Selatan, Cocok untuk Kantor/Resto</t>
+        </is>
+      </c>
+      <c r="C1184" t="n">
+        <v>34500000000</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>280</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>Rumah Siap Huni Kebayoran Baru Dekat Scbd</t>
+        </is>
+      </c>
+      <c r="C1185" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>366</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>366</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1186" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
+        </is>
+      </c>
+      <c r="C1187" t="n">
+        <v>28500000000</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>750</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>406</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+        </is>
+      </c>
+      <c r="C1188" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+        </is>
+      </c>
+      <c r="C1189" t="n">
+        <v>22500000000</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>248</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+        </is>
+      </c>
+      <c r="C1190" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>183</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>149</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Rumah Huni 2 Lantai Lokasi Pasar Minggu</t>
+        </is>
+      </c>
+      <c r="C1191" t="n">
+        <v>1300000000</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>72</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>45</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+        </is>
+      </c>
+      <c r="C1192" t="n">
+        <v>8000000000</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>250</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+        </is>
+      </c>
+      <c r="C1193" t="n">
+        <v>5500000000</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>320</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>318</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+        </is>
+      </c>
+      <c r="C1194" t="n">
+        <v>14000000000</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>850</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>384</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>8</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1194"/>
+  <dimension ref="A1:H1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32401,26 +32401,26 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
+          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>23000000000</v>
+        <v>4900000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>800</v>
+        <v>325</v>
       </c>
       <c r="E1142" t="n">
-        <v>1050</v>
+        <v>340</v>
       </c>
       <c r="F1142" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1142" t="n">
         <v>4</v>
       </c>
       <c r="H1142" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,17 +32429,17 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
+          <t>Rumah Strategis Di Tengah Kota</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>4900000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="E1143" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F1143" t="n">
         <v>5</v>
@@ -32448,7 +32448,7 @@
         <v>4</v>
       </c>
       <c r="H1143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1144">
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Rumah Strategis Di Tengah Kota</t>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>7800000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E1144" t="n">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="F1144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,26 +32485,26 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>8500000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>300</v>
+        <v>1005</v>
       </c>
       <c r="E1145" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F1145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1145" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1146">
@@ -32513,23 +32513,23 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>15000000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1146" t="n">
-        <v>1005</v>
+        <v>257</v>
       </c>
       <c r="E1146" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F1146" t="n">
         <v>3</v>
       </c>
       <c r="G1146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1146" t="n">
         <v>2</v>
@@ -32541,26 +32541,26 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>9500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>257</v>
+        <v>650</v>
       </c>
       <c r="E1147" t="n">
-        <v>306</v>
+        <v>982</v>
       </c>
       <c r="F1147" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1147" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1148">
@@ -32569,26 +32569,26 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>25000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="E1148" t="n">
-        <v>982</v>
+        <v>300</v>
       </c>
       <c r="F1148" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149">
@@ -32597,26 +32597,26 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>3750000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1149" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="E1149" t="n">
-        <v>300</v>
+        <v>1925</v>
       </c>
       <c r="F1149" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1149" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1150">
@@ -32625,26 +32625,26 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>42000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1150" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E1150" t="n">
-        <v>1925</v>
+        <v>1343</v>
       </c>
       <c r="F1150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1150" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1150" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1151">
@@ -32653,26 +32653,26 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>25000000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1151" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E1151" t="n">
-        <v>1343</v>
+        <v>2620</v>
       </c>
       <c r="F1151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1151" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1152">
@@ -32681,26 +32681,26 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>31500000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1152" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E1152" t="n">
-        <v>2620</v>
+        <v>504</v>
       </c>
       <c r="F1152" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1152" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1152" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153">
@@ -32709,17 +32709,17 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>32000000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1153" t="n">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="E1153" t="n">
-        <v>504</v>
+        <v>161</v>
       </c>
       <c r="F1153" t="n">
         <v>5</v>
@@ -32737,7 +32737,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1154" t="n">
@@ -32747,7 +32747,7 @@
         <v>180</v>
       </c>
       <c r="E1154" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1154" t="n">
         <v>5</v>
@@ -32765,7 +32765,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1155" t="n">
@@ -32793,20 +32793,20 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1156" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1156" t="n">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="F1156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1156" t="n">
         <v>3</v>
@@ -32821,26 +32821,26 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>11500000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1157" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E1157" t="n">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="F1157" t="n">
         <v>4</v>
       </c>
       <c r="G1157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1158">
@@ -32849,26 +32849,26 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>9500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1158" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1158" t="n">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="F1158" t="n">
         <v>4</v>
       </c>
       <c r="G1158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159">
@@ -32877,26 +32877,26 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>6900000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1159" t="n">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="E1159" t="n">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="F1159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1160">
@@ -32905,26 +32905,26 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>35000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1160" t="n">
-        <v>650</v>
+        <v>274</v>
       </c>
       <c r="E1160" t="n">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="F1160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161">
@@ -32933,26 +32933,26 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>30000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1161" t="n">
-        <v>274</v>
+        <v>1374</v>
       </c>
       <c r="E1161" t="n">
-        <v>448</v>
+        <v>1493</v>
       </c>
       <c r="F1161" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1161" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1161" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1162">
@@ -32961,26 +32961,26 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>26000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1162" t="n">
-        <v>1374</v>
+        <v>467</v>
       </c>
       <c r="E1162" t="n">
-        <v>1493</v>
+        <v>899</v>
       </c>
       <c r="F1162" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1162" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H1162" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1163">
@@ -32989,26 +32989,26 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>18000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1163" t="n">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="E1163" t="n">
-        <v>899</v>
+        <v>720</v>
       </c>
       <c r="F1163" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1163" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1163" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1164">
@@ -33017,26 +33017,26 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>12500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1164" t="n">
-        <v>520</v>
+        <v>375</v>
       </c>
       <c r="E1164" t="n">
-        <v>720</v>
+        <v>76</v>
       </c>
       <c r="F1164" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1164" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1164" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165">
@@ -33045,26 +33045,26 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>6900000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1165" t="n">
-        <v>375</v>
+        <v>1200</v>
       </c>
       <c r="E1165" t="n">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="F1165" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1165" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1166">
@@ -33073,26 +33073,26 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>42000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1166" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E1166" t="n">
-        <v>620</v>
+        <v>960</v>
       </c>
       <c r="F1166" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1166" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H1166" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1167">
@@ -33101,26 +33101,26 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>21000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1167" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="E1167" t="n">
-        <v>960</v>
+        <v>300</v>
       </c>
       <c r="F1167" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1167" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1167" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -33129,26 +33129,26 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>13000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1168" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E1168" t="n">
-        <v>300</v>
+        <v>534</v>
       </c>
       <c r="F1168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1169">
@@ -33157,26 +33157,26 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>40500000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1169" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="E1169" t="n">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="F1169" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1169" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1169" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170">
@@ -33185,26 +33185,26 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Dijual Rumah dengan Private Pool Dalam Cluster di Dekat Stasiun MRT Lebak Bulus</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>12000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1170" t="n">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E1170" t="n">
-        <v>550</v>
+        <v>252</v>
       </c>
       <c r="F1170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1170" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1171">
@@ -33213,26 +33213,26 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Dijual Rumah di Nol Jalan Raya Suryo Senopati Jakarta Selatan, Cocok untuk Kantor/Resto</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>7090000000</v>
+        <v>34500000000</v>
       </c>
       <c r="D1171" t="n">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="E1171" t="n">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="F1171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -33241,23 +33241,23 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Best Price Hitung Tanah Dekat NJOP, Pondok Indah, Jakarta Selatan</t>
+          <t>Rumah Siap Huni Kebayoran Baru Dekat Scbd</t>
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>6500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1172" t="n">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="E1172" t="n">
-        <v>198</v>
+        <v>366</v>
       </c>
       <c r="F1172" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1172" t="n">
         <v>1</v>
@@ -33269,26 +33269,26 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Under 7 M Pondok Indah Best Price Siap Huni Jakarta Selatan</t>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>6760000000</v>
+        <v>28500000000</v>
       </c>
       <c r="D1173" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E1173" t="n">
-        <v>160</v>
+        <v>406</v>
       </c>
       <c r="F1173" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1173" t="n">
         <v>4</v>
       </c>
       <c r="H1173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -33297,26 +33297,26 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Under 10 M Nego Dalam Komplek Pondok Indah. Jakarta Selatan</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>9500000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1174" t="n">
-        <v>219</v>
+        <v>500</v>
       </c>
       <c r="E1174" t="n">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="F1174" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1174" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -33325,26 +33325,26 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Alam Asri Rumah Luxury Cantik Dekat Mall Pondok Indah, Jakarta Selatan</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>20000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1175" t="n">
-        <v>700</v>
+        <v>183</v>
       </c>
       <c r="E1175" t="n">
-        <v>353</v>
+        <v>149</v>
       </c>
       <c r="F1175" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1175" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -33353,26 +33353,26 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Brawijaya Townhouse 200 Meter ke Kemang Village dan MRT, Kebayoran Baru, Jakarta Selatan</t>
+          <t>Rumah Huni 2 Lantai Lokasi Pasar Minggu</t>
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>15200000000</v>
+        <v>1300000000</v>
       </c>
       <c r="D1176" t="n">
-        <v>450</v>
+        <v>72</v>
       </c>
       <c r="E1176" t="n">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="F1176" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1176" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -33381,26 +33381,26 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Best Deal Luxurious Tropical House, Kebayoran Baru, Jakarta Selatan</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>15000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1177" t="n">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="E1177" t="n">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="F1177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -33409,26 +33409,26 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>2600000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1178" t="n">
-        <v>88</v>
+        <v>320</v>
       </c>
       <c r="E1178" t="n">
-        <v>55</v>
+        <v>318</v>
       </c>
       <c r="F1178" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179">
@@ -33437,26 +33437,26 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>6900000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1179" t="n">
-        <v>375</v>
+        <v>850</v>
       </c>
       <c r="E1179" t="n">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="F1179" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1179" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1180">
@@ -33465,26 +33465,26 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Panglima Polim 10 M Nego Good Deal. Kebayoran Baru. Jakarta Selatan</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>10100000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1180" t="n">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E1180" t="n">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F1180" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1180" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181">
@@ -33493,26 +33493,26 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>10 M Budget Luxury Interior Villa Home Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>15500000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1181" t="n">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="E1181" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="F1181" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1181" t="n">
         <v>4</v>
       </c>
       <c r="H1181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182">
@@ -33521,26 +33521,26 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Hot On Sale! Bali Tropical Villahouse Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>2830000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1182" t="n">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="E1182" t="n">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="F1182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183">
@@ -33549,26 +33549,26 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Dijual Rumah dengan Private Pool Dalam Cluster di Dekat Stasiun MRT Lebak Bulus</t>
+          <t>Hot Sale! Luxury Mansion Estetik di Kemang-Ampera, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>6000000000</v>
+        <v>55000000000</v>
       </c>
       <c r="D1183" t="n">
-        <v>128</v>
+        <v>700</v>
       </c>
       <c r="E1183" t="n">
-        <v>252</v>
+        <v>1150</v>
       </c>
       <c r="F1183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1183" t="n">
         <v>3</v>
       </c>
       <c r="H1183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184">
@@ -33577,23 +33577,23 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Nol Jalan Raya Suryo Senopati Jakarta Selatan, Cocok untuk Kantor/Resto</t>
+          <t>Last Unit! Tropical Estetik Villahouse Kemang Dalam</t>
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>34500000000</v>
+        <v>12900000000</v>
       </c>
       <c r="D1184" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="E1184" t="n">
-        <v>351</v>
+        <v>209</v>
       </c>
       <c r="F1184" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1184" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H1184" t="n">
         <v>2</v>
@@ -33605,26 +33605,26 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Kebayoran Baru Dekat Scbd</t>
+          <t>Top Luxurious Listing! Luxury American Classic Kebayoran Baru</t>
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>25000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="D1185" t="n">
-        <v>366</v>
+        <v>600</v>
       </c>
       <c r="E1185" t="n">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="F1185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1185" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186">
@@ -33633,26 +33633,26 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Brawijaya Townhouse 200 Meter ke Kemang Village dan MRT, Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>2600000000</v>
+        <v>15200000000</v>
       </c>
       <c r="D1186" t="n">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="E1186" t="n">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="F1186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1186" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1187">
@@ -33661,26 +33661,26 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>28500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1187" t="n">
-        <v>750</v>
+        <v>88</v>
       </c>
       <c r="E1187" t="n">
-        <v>406</v>
+        <v>55</v>
       </c>
       <c r="F1187" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188">
@@ -33689,26 +33689,26 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Best Price Hitung Tanah Dekat NJOP, Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>6900000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1188" t="n">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="E1188" t="n">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="F1188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189">
@@ -33717,26 +33717,26 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Best Deal Luxurious Tropical House, Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>22500000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1189" t="n">
-        <v>500</v>
+        <v>360</v>
       </c>
       <c r="E1189" t="n">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="F1189" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1189" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190">
@@ -33745,26 +33745,26 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Under 7 M Pondok Indah Best Price Siap Huni Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>7000000000</v>
+        <v>6760000000</v>
       </c>
       <c r="D1190" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E1190" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F1190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1190" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191">
@@ -33773,23 +33773,23 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Rumah Huni 2 Lantai Lokasi Pasar Minggu</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>1300000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1191" t="n">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E1191" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F1191" t="n">
         <v>2</v>
       </c>
       <c r="G1191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1191" t="n">
         <v>1</v>
@@ -33801,26 +33801,26 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>8000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1192" t="n">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="E1192" t="n">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="F1192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193">
@@ -33829,20 +33829,20 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+          <t>Panglima Polim 10 M Nego Good Deal. Kebayoran Baru. Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>5500000000</v>
+        <v>10100000000</v>
       </c>
       <c r="D1193" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="E1193" t="n">
-        <v>318</v>
+        <v>200</v>
       </c>
       <c r="F1193" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1193" t="n">
         <v>5</v>
@@ -33857,26 +33857,278 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+          <t>Under 10 M Nego Dalam Komplek Pondok Indah. Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>14000000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1194" t="n">
-        <v>850</v>
+        <v>219</v>
       </c>
       <c r="E1194" t="n">
-        <v>384</v>
+        <v>200</v>
       </c>
       <c r="F1194" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>ZENITPARC HYTT</t>
+        </is>
+      </c>
+      <c r="C1195" t="n">
+        <v>2600000000</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>117</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Alam Asri Rumah Luxury Cantik Dekat Mall Pondok Indah, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1196" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>353</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+        </is>
+      </c>
+      <c r="C1197" t="n">
+        <v>15500000000</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>340</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>350</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
+        </is>
+      </c>
+      <c r="C1198" t="n">
+        <v>23000000000</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1198" t="n">
         <v>7</v>
       </c>
-      <c r="G1194" t="n">
-        <v>8</v>
-      </c>
-      <c r="H1194" t="n">
-        <v>3</v>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Rumah di Bungur Kemang Utara Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1199" t="n">
+        <v>24000000000</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>787</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+        </is>
+      </c>
+      <c r="C1200" t="n">
+        <v>6900000000</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>375</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>76</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Pomentia Residence Full Furnished Murah Jagakarsa</t>
+        </is>
+      </c>
+      <c r="C1201" t="n">
+        <v>2400000000</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>140</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>105</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Rumah Nempel Lebak Bulus Dalam Cluster Hanya 15.Menit ke MRT Rumah</t>
+        </is>
+      </c>
+      <c r="C1202" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>127</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1203" t="n">
+        <v>17000000000</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>350</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/DATA RUMAH.xlsx
+++ b/data/raw/DATA RUMAH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1203"/>
+  <dimension ref="A1:H1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32121,23 +32121,23 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
+          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>8800000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1132" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E1132" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F1132" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1132" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1132" t="n">
         <v>1</v>
@@ -32149,26 +32149,26 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Cilandak Belakang Citos 2 Lt Tenang Private Asri Bebas Banjir</t>
+          <t>Termurah Brawijaya Townhouse Kebayoran Baru, Dijual Rumah Hunian Property di Dalam Townhouse Perumahan Komplek Akses Jalan Lebar Akses Mudah di Lingkungan Elit dan Lokasi Strategis Sentral Dekat dengan MRT, Dharmawangsa, Senopati, di Jalan Brawijaya, Keba</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>6000000000</v>
+        <v>15200000000</v>
       </c>
       <c r="D1133" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="E1133" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F1133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1134">
@@ -32177,26 +32177,26 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Termurah Brawijaya Townhouse Kebayoran Baru, Dijual Rumah Hunian Property di Dalam Townhouse Perumahan Komplek Akses Jalan Lebar Akses Mudah di Lingkungan Elit dan Lokasi Strategis Sentral Dekat dengan MRT, Dharmawangsa, Senopati, di Jalan Brawijaya, Keba</t>
+          <t>Best Deal Luas Tanah Besar Siap Huni Kebayoran Baru! Rumah Modern Tropical Mewah Cantik Property Hunian Dijual Semi Furnished di Lokasi Strategis Akses dan Lingkungan Nyaman dan Asri di Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>15200000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1134" t="n">
-        <v>450</v>
+        <v>360</v>
       </c>
       <c r="E1134" t="n">
-        <v>196</v>
+        <v>307</v>
       </c>
       <c r="F1134" t="n">
         <v>4</v>
       </c>
       <c r="G1134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -32205,23 +32205,23 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Best Deal Luas Tanah Besar Siap Huni Kebayoran Baru! Rumah Modern Tropical Mewah Cantik Property Hunian Dijual Semi Furnished di Lokasi Strategis Akses dan Lingkungan Nyaman dan Asri di Kebayoran Baru, Jakarta Selatan</t>
+          <t>Best Deal Kebayoran Baru! Rumah Siap Huni Cantik Kebayoran Baru Jalan Lebar Dekat Hanya 200 Meter ke MRT Lingkungan Nyaman dan Aman di Kebayoran Baru, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>15000000000</v>
+        <v>10100000000</v>
       </c>
       <c r="D1135" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="E1135" t="n">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c r="F1135" t="n">
         <v>4</v>
       </c>
       <c r="G1135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1135" t="n">
         <v>2</v>
@@ -32233,26 +32233,26 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Best Deal Kebayoran Baru! Rumah Siap Huni Cantik Kebayoran Baru Jalan Lebar Dekat Hanya 200 Meter ke MRT Lingkungan Nyaman dan Aman di Kebayoran Baru, Jakarta Selatan</t>
+          <t>Best Price Harga Bagus Pondok Indah untuk Bangun Rumah Impian, Rumah Hitung Tanah Dijual Luas Besar dengan Harga Murah Jalan Depan Lebar Lingkungan Nyaman Aman dan Asri di Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>10100000000</v>
+        <v>6500000000</v>
       </c>
       <c r="D1136" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="E1136" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F1136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1136" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137">
@@ -32261,23 +32261,23 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Best Price Harga Bagus Pondok Indah untuk Bangun Rumah Impian, Rumah Hitung Tanah Dijual Luas Besar dengan Harga Murah Jalan Depan Lebar Lingkungan Nyaman Aman dan Asri di Pondok Indah, Jakarta Selatan</t>
+          <t>Best Price Pondok Indah Rumah Siap Huni! Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>6500000000</v>
+        <v>6760000000</v>
       </c>
       <c r="D1137" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E1137" t="n">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="F1137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1137" t="n">
         <v>1</v>
@@ -32289,23 +32289,23 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Best Price Pondok Indah Rumah Siap Huni! Pondok Indah, Jakarta Selatan</t>
+          <t>Best Price Siap Huni Pondok Indah Rumah Cantik Terawat! Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>6760000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1138" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1138" t="n">
         <v>200</v>
       </c>
-      <c r="E1138" t="n">
-        <v>160</v>
-      </c>
       <c r="F1138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1138" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1138" t="n">
         <v>1</v>
@@ -32317,23 +32317,23 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Best Price Siap Huni Pondok Indah Rumah Cantik Terawat! Pondok Indah, Jakarta Selatan</t>
+          <t>Rumah Siap Huni 2M-An di Tebet Dekat Kokas, Saharjo dan Tebet Raya!</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>9500000000</v>
+        <v>2300000000</v>
       </c>
       <c r="D1139" t="n">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="E1139" t="n">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="F1139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1139" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1139" t="n">
         <v>1</v>
@@ -32345,26 +32345,26 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni 2M-An di Tebet Dekat Kokas, Saharjo dan Tebet Raya!</t>
+          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>2300000000</v>
+        <v>41900000000</v>
       </c>
       <c r="D1140" t="n">
-        <v>142</v>
+        <v>720</v>
       </c>
       <c r="E1140" t="n">
-        <v>83</v>
+        <v>634</v>
       </c>
       <c r="F1140" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1141">
@@ -32373,26 +32373,26 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Murah Jual Nego Cepat Rumah Mewah+ Pool 634M2 di Pondok Indah</t>
+          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1141" t="n">
-        <v>41900000000</v>
+        <v>4900000000</v>
       </c>
       <c r="D1141" t="n">
-        <v>720</v>
+        <v>325</v>
       </c>
       <c r="E1141" t="n">
-        <v>634</v>
+        <v>340</v>
       </c>
       <c r="F1141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142">
@@ -32401,17 +32401,17 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Jual Rumah di Pejaten Barat Jakarta Selatan</t>
+          <t>Rumah Strategis Di Tengah Kota</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>4900000000</v>
+        <v>7800000000</v>
       </c>
       <c r="D1142" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="E1142" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F1142" t="n">
         <v>5</v>
@@ -32420,7 +32420,7 @@
         <v>4</v>
       </c>
       <c r="H1142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1143">
@@ -32429,26 +32429,26 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Rumah Strategis Di Tengah Kota</t>
+          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>7800000000</v>
+        <v>8500000000</v>
       </c>
       <c r="D1143" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E1143" t="n">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="F1143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1144">
@@ -32457,26 +32457,26 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Serenia Hills Cluster Signature Best Deal Jarang Ada</t>
+          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>8500000000</v>
+        <v>15000000000</v>
       </c>
       <c r="D1144" t="n">
-        <v>300</v>
+        <v>1005</v>
       </c>
       <c r="E1144" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F1144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1145">
@@ -32485,23 +32485,23 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>House For Sale - [Lebak Bulus]Rumah Dalam Townhouse, Bangunan 4 Lantai Plus Rooftop.</t>
+          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>15000000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1145" t="n">
-        <v>1005</v>
+        <v>257</v>
       </c>
       <c r="E1145" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F1145" t="n">
         <v>3</v>
       </c>
       <c r="G1145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1145" t="n">
         <v>2</v>
@@ -32513,26 +32513,26 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Dijual Rumah Secondary dengan Modern Tropical Design Dalam Townhouse Berisi 13 Unit Rumah yang Aman dan Nyaman di Area R.c Veteran - Rempoa, Jakarta Selatan</t>
+          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>9500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1146" t="n">
-        <v>257</v>
+        <v>650</v>
       </c>
       <c r="E1146" t="n">
-        <v>306</v>
+        <v>982</v>
       </c>
       <c r="F1146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1147">
@@ -32541,26 +32541,26 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Rumah Mewah Terawat dan Siap Huni, Tanah dan Bangunan Luas di Cilandak</t>
+          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>25000000000</v>
+        <v>3750000000</v>
       </c>
       <c r="D1147" t="n">
-        <v>650</v>
+        <v>150</v>
       </c>
       <c r="E1147" t="n">
-        <v>982</v>
+        <v>300</v>
       </c>
       <c r="F1147" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1148">
@@ -32569,26 +32569,26 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Rumah di Bawah Harga Pasar Buat Kost dan Investasi Dekat Kebayoran Baru Jakarta Selatan</t>
+          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>3750000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1148" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="E1148" t="n">
-        <v>300</v>
+        <v>1925</v>
       </c>
       <c r="F1148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1148" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1148" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1149">
@@ -32597,26 +32597,26 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Rumah Tropical Resort With S Pool In Cipete Jakarta Selatan</t>
+          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>42000000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1149" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E1149" t="n">
-        <v>1925</v>
+        <v>1343</v>
       </c>
       <c r="F1149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1149" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1150">
@@ -32625,26 +32625,26 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Rumah Kantor Buat Usaha di Bawah Harga NJOP Tersewa di Kemang Jakarta Selatan</t>
+          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>25000000000</v>
+        <v>31500000000</v>
       </c>
       <c r="D1150" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E1150" t="n">
-        <v>1343</v>
+        <v>2620</v>
       </c>
       <c r="F1150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1150" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1151">
@@ -32653,26 +32653,26 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Rumah Paling Murah Lokasi Bagus di Area Kemang Jakarta Selatan</t>
+          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>31500000000</v>
+        <v>32000000000</v>
       </c>
       <c r="D1151" t="n">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E1151" t="n">
-        <v>2620</v>
+        <v>504</v>
       </c>
       <c r="F1151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152">
@@ -32681,17 +32681,17 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Rumah 2 Lantai Harga NJOP Lokasi Prestisius Dekat ke Pusat Bisnis Mega Kuningan, Jakarta Selatan</t>
+          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>32000000000</v>
+        <v>3950000000</v>
       </c>
       <c r="D1152" t="n">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="E1152" t="n">
-        <v>504</v>
+        <v>161</v>
       </c>
       <c r="F1152" t="n">
         <v>5</v>
@@ -32709,7 +32709,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Jual Rumah Pondok Pinang Area Pondok Indah</t>
+          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
         </is>
       </c>
       <c r="C1153" t="n">
@@ -32719,7 +32719,7 @@
         <v>180</v>
       </c>
       <c r="E1153" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1153" t="n">
         <v>5</v>
@@ -32737,7 +32737,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Jual Rumah ******** Area Cilandak Pondok Indah</t>
+          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
         </is>
       </c>
       <c r="C1154" t="n">
@@ -32765,20 +32765,20 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Jual Rumah Lebak Bulus Area Pondok Pinang Pondok Indah</t>
+          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>3950000000</v>
+        <v>11500000000</v>
       </c>
       <c r="D1155" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="E1155" t="n">
-        <v>162</v>
+        <v>446</v>
       </c>
       <c r="F1155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1155" t="n">
         <v>3</v>
@@ -32793,26 +32793,26 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Rumah Super Mewah dan Luas Komplek Elite Lebak Bulus Jakarta Selatan Wajib Survey</t>
+          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>11500000000</v>
+        <v>9500000000</v>
       </c>
       <c r="D1156" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E1156" t="n">
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="F1156" t="n">
         <v>4</v>
       </c>
       <c r="G1156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1157">
@@ -32821,26 +32821,26 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Rumah Harga Siap Nego Sampai Deal Dekat Blok A dan Jalan Rs Fatmawati</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>9500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1157" t="n">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="E1157" t="n">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="F1157" t="n">
         <v>4</v>
       </c>
       <c r="G1157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158">
@@ -32849,26 +32849,26 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Pusat Jakarta Selatan Dekat SCBD Senopati</t>
+          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>6900000000</v>
+        <v>35000000000</v>
       </c>
       <c r="D1158" t="n">
-        <v>375</v>
+        <v>650</v>
       </c>
       <c r="E1158" t="n">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="F1158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1159">
@@ -32877,26 +32877,26 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Rumah Mewah Siap Huni Lingkungan Elit Dekat JIS Cilandak Barat</t>
+          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>35000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="D1159" t="n">
-        <v>650</v>
+        <v>274</v>
       </c>
       <c r="E1159" t="n">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="F1159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -32905,26 +32905,26 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Hunian Strategis di Area Bulungan Jakarta Selatan</t>
+          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>30000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="D1160" t="n">
-        <v>274</v>
+        <v>1374</v>
       </c>
       <c r="E1160" t="n">
-        <v>448</v>
+        <v>1493</v>
       </c>
       <c r="F1160" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1160" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1160" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1161">
@@ -32933,26 +32933,26 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Dijual Via Lelang Rumah Mewah Raya Kemang Utara 16Kt Murah</t>
+          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>26000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="D1161" t="n">
-        <v>1374</v>
+        <v>467</v>
       </c>
       <c r="E1161" t="n">
-        <v>1493</v>
+        <v>899</v>
       </c>
       <c r="F1161" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1161" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H1161" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1162">
@@ -32961,26 +32961,26 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Rumah Cipete 2 Lantai Dalam Private Compound (Total 3 Rumah) With One Gate System dan Kolam Renang</t>
+          <t>Rumah Mewah Baru di Jagakarsa</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>18000000000</v>
+        <v>12500000000</v>
       </c>
       <c r="D1162" t="n">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="E1162" t="n">
-        <v>899</v>
+        <v>720</v>
       </c>
       <c r="F1162" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1162" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1163">
@@ -32989,26 +32989,26 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Rumah Mewah Baru di Jagakarsa</t>
+          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>12500000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1163" t="n">
-        <v>520</v>
+        <v>375</v>
       </c>
       <c r="E1163" t="n">
-        <v>720</v>
+        <v>76</v>
       </c>
       <c r="F1163" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1163" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1164">
@@ -33017,26 +33017,26 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah Kondisi Baru di Kebayoran Baru Jaksel Jarang Ada</t>
+          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>6900000000</v>
+        <v>42000000000</v>
       </c>
       <c r="D1164" t="n">
-        <v>375</v>
+        <v>1200</v>
       </c>
       <c r="E1164" t="n">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="F1164" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1164" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1165">
@@ -33045,26 +33045,26 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Dijual Murah Guest House Exclusive Khusus Expat di Kebayoran Baru. Good Invest. Dekat Senopati. Occupancy Bagus</t>
+          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>42000000000</v>
+        <v>21000000000</v>
       </c>
       <c r="D1165" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="E1165" t="n">
-        <v>620</v>
+        <v>960</v>
       </c>
       <c r="F1165" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1165" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H1165" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1166">
@@ -33073,26 +33073,26 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Dijual Cepat Rumah Dalam Komplek Di Lebak Bulus. Luas 960m2</t>
+          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>21000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="D1166" t="n">
-        <v>700</v>
+        <v>150</v>
       </c>
       <c r="E1166" t="n">
-        <v>960</v>
+        <v>300</v>
       </c>
       <c r="F1166" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1166" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -33101,26 +33101,26 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Pondok Indah Luas 300m Hanya 13 M . Jalan Lebar Dan Tenang, Dalam Portal</t>
+          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>13000000000</v>
+        <v>40500000000</v>
       </c>
       <c r="D1167" t="n">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="E1167" t="n">
-        <v>300</v>
+        <v>534</v>
       </c>
       <c r="F1167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1167" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1168">
@@ -33129,26 +33129,26 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Dijual Rumah Lokasi Terbaik Di Jl. Hang Tuah</t>
+          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>40500000000</v>
+        <v>12000000000</v>
       </c>
       <c r="D1168" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="E1168" t="n">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="F1168" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1168" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1168" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169">
@@ -33157,26 +33157,26 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Dijual Rumah Siap Huni di Cilandak (Seberang Citos Area Jl. Intan) Luas 550M Rp.12 M</t>
+          <t>Dijual Rumah dengan Private Pool Dalam Cluster di Dekat Stasiun MRT Lebak Bulus</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>12000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="D1169" t="n">
-        <v>600</v>
+        <v>128</v>
       </c>
       <c r="E1169" t="n">
-        <v>550</v>
+        <v>252</v>
       </c>
       <c r="F1169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1169" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1170">
@@ -33185,26 +33185,26 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Dijual Rumah dengan Private Pool Dalam Cluster di Dekat Stasiun MRT Lebak Bulus</t>
+          <t>Dijual Rumah di Nol Jalan Raya Suryo Senopati Jakarta Selatan, Cocok untuk Kantor/Resto</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>6000000000</v>
+        <v>34500000000</v>
       </c>
       <c r="D1170" t="n">
-        <v>128</v>
+        <v>280</v>
       </c>
       <c r="E1170" t="n">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="F1170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1170" t="n">
         <v>3</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -33213,17 +33213,17 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Dijual Rumah di Nol Jalan Raya Suryo Senopati Jakarta Selatan, Cocok untuk Kantor/Resto</t>
+          <t>Rumah Siap Huni Kebayoran Baru Dekat Scbd</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>34500000000</v>
+        <v>25000000000</v>
       </c>
       <c r="D1171" t="n">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="E1171" t="n">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F1171" t="n">
         <v>4</v>
@@ -33232,7 +33232,7 @@
         <v>3</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172">
@@ -33241,26 +33241,26 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Rumah Siap Huni Kebayoran Baru Dekat Scbd</t>
+          <t>Brand New Modern American Classic House Pondok Indah</t>
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>25000000000</v>
+        <v>28500000000</v>
       </c>
       <c r="D1172" t="n">
-        <v>366</v>
+        <v>750</v>
       </c>
       <c r="E1172" t="n">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="F1172" t="n">
         <v>4</v>
       </c>
       <c r="G1172" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1173">
@@ -33269,23 +33269,23 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Brand New Modern American Classic House Pondok Indah</t>
+          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>28500000000</v>
+        <v>22500000000</v>
       </c>
       <c r="D1173" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="E1173" t="n">
-        <v>406</v>
+        <v>248</v>
       </c>
       <c r="F1173" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1173" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1173" t="n">
         <v>3</v>
@@ -33297,26 +33297,26 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Rumah Mewah Murah di Kebayoran Baru 3 Lt Private Lift di Jual Bu</t>
+          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>22500000000</v>
+        <v>7000000000</v>
       </c>
       <c r="D1174" t="n">
-        <v>500</v>
+        <v>183</v>
       </c>
       <c r="E1174" t="n">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F1174" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1174" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175">
@@ -33325,26 +33325,26 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Rumah di Kebayoran Baru Jakarta Selatan Tanah Luas Hargamurahshm</t>
+          <t>Rumah Huni 2 Lantai Lokasi Pasar Minggu</t>
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>7000000000</v>
+        <v>1300000000</v>
       </c>
       <c r="D1175" t="n">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="E1175" t="n">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="F1175" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176">
@@ -33353,26 +33353,26 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>Rumah Huni 2 Lantai Lokasi Pasar Minggu</t>
+          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>1300000000</v>
+        <v>8000000000</v>
       </c>
       <c r="D1176" t="n">
-        <v>72</v>
+        <v>430</v>
       </c>
       <c r="E1176" t="n">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="F1176" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1176" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1176" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -33381,17 +33381,17 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Rumah Siaphuni Di Pondok Indah 3 Lantai Dekat Mall Tol Rumahsakit</t>
+          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>8000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="D1177" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="E1177" t="n">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="F1177" t="n">
         <v>5</v>
@@ -33400,7 +33400,7 @@
         <v>5</v>
       </c>
       <c r="H1177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178">
@@ -33409,26 +33409,26 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Rumah Mewah Di Pondok Indah Jakartaselatan Di Jual Sangat Murah</t>
+          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>5500000000</v>
+        <v>14000000000</v>
       </c>
       <c r="D1178" t="n">
-        <v>320</v>
+        <v>850</v>
       </c>
       <c r="E1178" t="n">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="F1178" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1178" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -33437,26 +33437,26 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Brand New House 3 Lantai Di Cipete Antasari Jakarta Selatan Murah</t>
+          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>14000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1179" t="n">
-        <v>850</v>
+        <v>375</v>
       </c>
       <c r="E1179" t="n">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="F1179" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G1179" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H1179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -33465,26 +33465,26 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Nivara Resort Townhouse at Wijaya</t>
+          <t>Alam Asri Rumah Luxury Cantik Dekat Mall Pondok Indah, Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>7090000000</v>
+        <v>20000000000</v>
       </c>
       <c r="D1180" t="n">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="E1180" t="n">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="F1180" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G1180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -33493,26 +33493,26 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>10 M Budget Luxury Interior Villa Home Kemang Jakarta Selatan</t>
+          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>9500000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1181" t="n">
-        <v>436</v>
+        <v>800</v>
       </c>
       <c r="E1181" t="n">
-        <v>200</v>
+        <v>1050</v>
       </c>
       <c r="F1181" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1181" t="n">
         <v>4</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1182">
@@ -33521,26 +33521,26 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Hot On Sale! Bali Tropical Villahouse Kemang Jakarta Selatan</t>
+          <t>Rumah di Bungur Kemang Utara Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>8500000000</v>
+        <v>24000000000</v>
       </c>
       <c r="D1182" t="n">
-        <v>262</v>
+        <v>600</v>
       </c>
       <c r="E1182" t="n">
-        <v>161</v>
+        <v>787</v>
       </c>
       <c r="F1182" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1182" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1183">
@@ -33549,23 +33549,23 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Hot Sale! Luxury Mansion Estetik di Kemang-Ampera, Jakarta Selatan</t>
+          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>55000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="D1183" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="E1183" t="n">
-        <v>1150</v>
+        <v>76</v>
       </c>
       <c r="F1183" t="n">
         <v>4</v>
       </c>
       <c r="G1183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1183" t="n">
         <v>2</v>
@@ -33577,23 +33577,23 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Last Unit! Tropical Estetik Villahouse Kemang Dalam</t>
+          <t>Pomentia Residence Full Furnished Murah Jagakarsa</t>
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>12900000000</v>
+        <v>2400000000</v>
       </c>
       <c r="D1184" t="n">
-        <v>450</v>
+        <v>140</v>
       </c>
       <c r="E1184" t="n">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="F1184" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1184" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1184" t="n">
         <v>2</v>
@@ -33605,17 +33605,17 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Top Luxurious Listing! Luxury American Classic Kebayoran Baru</t>
+          <t>Rumah Nempel Lebak Bulus Dalam Cluster Hanya 15.Menit ke MRT Rumah</t>
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>28000000000</v>
+        <v>1750000000</v>
       </c>
       <c r="D1185" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E1185" t="n">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="F1185" t="n">
         <v>5</v>
@@ -33624,7 +33624,7 @@
         <v>5</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186">
@@ -33633,26 +33633,26 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Brawijaya Townhouse 200 Meter ke Kemang Village dan MRT, Kebayoran Baru, Jakarta Selatan</t>
+          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>15200000000</v>
+        <v>17000000000</v>
       </c>
       <c r="D1186" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E1186" t="n">
-        <v>196</v>
+        <v>1070</v>
       </c>
       <c r="F1186" t="n">
         <v>4</v>
       </c>
       <c r="G1186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1187">
@@ -33661,17 +33661,17 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Padmavilla Pejaten</t>
+          <t>Nivara Resort Townhouse at Wijaya</t>
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2600000000</v>
+        <v>7090000000</v>
       </c>
       <c r="D1187" t="n">
-        <v>88</v>
+        <v>375</v>
       </c>
       <c r="E1187" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F1187" t="n">
         <v>2</v>
@@ -33689,23 +33689,23 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Best Price Hitung Tanah Dekat NJOP, Pondok Indah, Jakarta Selatan</t>
+          <t>Pondok Indah Harga di Bawah NJOP</t>
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>6500000000</v>
+        <v>7500000000</v>
       </c>
       <c r="D1188" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="E1188" t="n">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="F1188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1188" t="n">
         <v>1</v>
@@ -33717,23 +33717,23 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Best Deal Luxurious Tropical House, Kebayoran Baru, Jakarta Selatan</t>
+          <t>Dijual Rumah 2 Lantai Murah Cilandak</t>
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>15000000000</v>
+        <v>7300000000</v>
       </c>
       <c r="D1189" t="n">
-        <v>360</v>
+        <v>600</v>
       </c>
       <c r="E1189" t="n">
-        <v>307</v>
+        <v>510</v>
       </c>
       <c r="F1189" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1189" t="n">
         <v>2</v>
@@ -33745,23 +33745,23 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Under 7 M Pondok Indah Best Price Siap Huni Jakarta Selatan</t>
+          <t>Harga dibawah 1 M - Rumah BRANDNEW di Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>6760000000</v>
+        <v>998000000</v>
       </c>
       <c r="D1190" t="n">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="E1190" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="F1190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1190" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1190" t="n">
         <v>1</v>
@@ -33773,23 +33773,23 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Padmavilla Cilandak</t>
+          <t>Rumah Area Senopati Dekat Sekali ke Scbd, Gunawarman, Pacific Place</t>
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>2830000000</v>
+        <v>22000000000</v>
       </c>
       <c r="D1191" t="n">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="E1191" t="n">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="F1191" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1191" t="n">
         <v>1</v>
@@ -33801,26 +33801,26 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Rumah Mewah Kondisi Baru di Jakarta Selatan 4 Lantai</t>
+          <t>Rumah Tebet Strategis SHM Hadap Barat</t>
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>6900000000</v>
+        <v>6250000000</v>
       </c>
       <c r="D1192" t="n">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="E1192" t="n">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="F1192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193">
@@ -33829,26 +33829,26 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Panglima Polim 10 M Nego Good Deal. Kebayoran Baru. Jakarta Selatan</t>
+          <t>Dijual Kost Exlusive Tebet Cocok untuk Investasi Negotiable</t>
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>10100000000</v>
+        <v>7200000000</v>
       </c>
       <c r="D1193" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E1193" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F1193" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G1193" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194">
@@ -33857,23 +33857,23 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Under 10 M Nego Dalam Komplek Pondok Indah. Jakarta Selatan</t>
+          <t>Padmavilla Pejaten</t>
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>9500000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1194" t="n">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="E1194" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="F1194" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1194" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1194" t="n">
         <v>1</v>
@@ -33885,26 +33885,26 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>ZENITPARC HYTT</t>
+          <t>Rumah Modern di Kebayoran Baru Row Jalan Lebar Dekat ke Senayan</t>
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>2600000000</v>
+        <v>65000000000</v>
       </c>
       <c r="D1195" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="E1195" t="n">
-        <v>117</v>
+        <v>675</v>
       </c>
       <c r="F1195" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1195" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196">
@@ -33913,26 +33913,26 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Alam Asri Rumah Luxury Cantik Dekat Mall Pondok Indah, Jakarta Selatan</t>
+          <t>Jual Cepat Rumah Bagus 534M2 di Bukit Hijau Pondok Indah</t>
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>20000000000</v>
+        <v>23000000000</v>
       </c>
       <c r="D1196" t="n">
-        <v>700</v>
+        <v>375</v>
       </c>
       <c r="E1196" t="n">
-        <v>353</v>
+        <v>534</v>
       </c>
       <c r="F1196" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1196" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197">
@@ -33941,26 +33941,26 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+          <t>Murah! Townhouse Cantik Suralaya Residences A4 di Daerah Elit Kemang</t>
         </is>
       </c>
       <c r="C1197" t="n">
         <v>15500000000</v>
       </c>
       <c r="D1197" t="n">
-        <v>340</v>
+        <v>928</v>
       </c>
       <c r="E1197" t="n">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="F1197" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1197" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198">
@@ -33969,26 +33969,26 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Strategis, Pggr Jln Raya, Murah Bwh Njop</t>
+          <t>Padmavilla Cilandak</t>
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>23000000000</v>
+        <v>2830000000</v>
       </c>
       <c r="D1198" t="n">
-        <v>800</v>
+        <v>112</v>
       </c>
       <c r="E1198" t="n">
-        <v>1050</v>
+        <v>70</v>
       </c>
       <c r="F1198" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G1198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1198" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199">
@@ -33997,17 +33997,17 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Rumah di Bungur Kemang Utara Jakarta Selatan</t>
+          <t>Rumah Mewah Siap Huni Di Kebayoran</t>
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>24000000000</v>
+        <v>38000000000</v>
       </c>
       <c r="D1199" t="n">
-        <v>600</v>
+        <v>1350</v>
       </c>
       <c r="E1199" t="n">
-        <v>787</v>
+        <v>863</v>
       </c>
       <c r="F1199" t="n">
         <v>6</v>
@@ -34016,7 +34016,7 @@
         <v>6</v>
       </c>
       <c r="H1199" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200">
@@ -34025,17 +34025,17 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>For Sale Rumah Mewah 4 Lantai Kondisi Baru di Jaksel Super Strategis</t>
+          <t>Jarang Ada Rumah Bagus Kemang Bangka Tanah 648</t>
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>6900000000</v>
+        <v>10000000000</v>
       </c>
       <c r="D1200" t="n">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="E1200" t="n">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="F1200" t="n">
         <v>4</v>
@@ -34053,26 +34053,26 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Pomentia Residence Full Furnished Murah Jagakarsa</t>
+          <t>Brand New House 120m2 Pondok Indah Jakarta Selatan</t>
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>2400000000</v>
+        <v>8800000000</v>
       </c>
       <c r="D1201" t="n">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="E1201" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="F1201" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1201" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202">
@@ -34081,23 +34081,23 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Rumah Nempel Lebak Bulus Dalam Cluster Hanya 15.Menit ke MRT Rumah</t>
+          <t>ZENITPARC HYTT</t>
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>1750000000</v>
+        <v>2600000000</v>
       </c>
       <c r="D1202" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="E1202" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F1202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G1202" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1202" t="n">
         <v>1</v>
@@ -34109,26 +34109,782 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Regina Realty, Harga NJOP Dijual Rumah Pejaten Jakarta Selatan</t>
+          <t>Langkah! Rumah Semi Furnish European Style Taman Palem Jakarta Barat</t>
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>17000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="D1203" t="n">
+        <v>440</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>7</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Rumah Mewah 1.050 M2 Pondok Indah Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1204" t="n">
+        <v>68000000000</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>1050</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>8</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Nol Jalan Raya Suryo Senopati Jakarta Selatan.cocok Untuk Tempat Usaha</t>
+        </is>
+      </c>
+      <c r="C1205" t="n">
+        <v>34500000000</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>500</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>351</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Dinual Rumah Pinggir Jalan Raya Petogogan Jaksel</t>
+        </is>
+      </c>
+      <c r="C1206" t="n">
+        <v>22000000000</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>290</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Rumah Mewah Brand New Modern Design Dalam Perumahan di Radio Dalam</t>
+        </is>
+      </c>
+      <c r="C1207" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Jual Rumah Lama di Tebet Barat Jakarta Selatan Potensi Investasi Bangun Kost Akses Jalan Lebar</t>
+        </is>
+      </c>
+      <c r="C1208" t="n">
+        <v>4800000000</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah - Townhouse Eksklusif Jl. Bangka, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1209" t="n">
+        <v>13500000000</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>304</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>6</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Dijual Rumah 2 Lantai Konsep Villa  Dalam Kawasan Elit, Nempel Scbd, Nempel Akses Jl. Senopati</t>
+        </is>
+      </c>
+      <c r="C1210" t="n">
+        <v>14500000000</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>300</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>240</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Rumah Tebet 2M-An Siap Huni</t>
+        </is>
+      </c>
+      <c r="C1211" t="n">
+        <v>1850000000</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>190</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>73</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Tebet Jalan 2 Mobil Dekat Kokas, Soepomo, Abdullah Syafei</t>
+        </is>
+      </c>
+      <c r="C1212" t="n">
+        <v>3300000000</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>130</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>88</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Dijual Lelang Rumah Murah Lt 475 M2 di Gudang Peluru Tebet Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1213" t="n">
+        <v>3350000000</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>475</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>475</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah di Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1214" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>3475</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>3475</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>Dijual Lelang Rumah Mewah Lt 4535 M2 di Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1215" t="n">
+        <v>42500000000</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>4535</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>4535</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Lokasi Strategis Lt 528 M2 di Tebet Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1216" t="n">
+        <v>7900000000</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>528</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>528</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Bagus Murah di Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1217" t="n">
+        <v>13100000000</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>819</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>819</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Dijual Rumah Mewah di Cilandak Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1218" t="n">
+        <v>7000000000</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>600</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>Top Luxurious Listing! Luxury American Classic Kebayoran Baru</t>
+        </is>
+      </c>
+      <c r="C1219" t="n">
+        <v>28000000000</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>600</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>400</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>Brawijaya Townhouse 200 Meter ke Kemang Village dan MRT, Kebayoran Baru, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1220" t="n">
+        <v>15200000000</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>450</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>196</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Best Deal Luxurious Tropical House, Kebayoran Baru, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1221" t="n">
+        <v>15000000000</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>360</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Panglima Polim 10 M Nego Good Deal. Kebayoran Baru. Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1222" t="n">
+        <v>10100000000</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>10 M Budget Luxury Interior Villa Home Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1223" t="n">
+        <v>9500000000</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>436</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>Rumah Murah Classic Modern Tebet Mas Spesifikasi Mahal Siap Huni Jual Cepat Lihat Jamin Beli</t>
+        </is>
+      </c>
+      <c r="C1224" t="n">
+        <v>15500000000</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>340</v>
+      </c>
+      <c r="E1224" t="n">
         <v>350</v>
       </c>
-      <c r="E1203" t="n">
-        <v>1070</v>
-      </c>
-      <c r="F1203" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1203" t="n">
-        <v>3</v>
-      </c>
-      <c r="H1203" t="n">
-        <v>4</v>
+      <c r="F1224" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>Hot On Sale! Bali Tropical Villahouse Kemang Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1225" t="n">
+        <v>8500000000</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>161</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>Hot Sale! Luxury Mansion Estetik di Kemang-Ampera, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1226" t="n">
+        <v>55000000000</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>1150</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Best Price Hitung Tanah Dekat NJOP, Pondok Indah, Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1227" t="n">
+        <v>6500000000</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>198</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Last Unit! Tropical Estetik Villahouse Kemang Dalam</t>
+        </is>
+      </c>
+      <c r="C1228" t="n">
+        <v>12900000000</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>450</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>209</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>Under 7 M Pondok Indah Best Price Siap Huni Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1229" t="n">
+        <v>6760000000</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>160</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>4</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Under 10 M Nego Dalam Komplek Pondok Indah. Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="C1230" t="n">
+        <v>9500000000</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>200</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
